--- a/JupyterNotebooks/AvgHW/Gamma2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,31 +626,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.007416806520792</v>
+        <v>1.007416806520791</v>
       </c>
       <c r="D3">
+        <v>0.991430912204182</v>
+      </c>
+      <c r="E3">
+        <v>1.006454726615503</v>
+      </c>
+      <c r="F3">
+        <v>1.004039379225537</v>
+      </c>
+      <c r="G3">
+        <v>1.002649491435466</v>
+      </c>
+      <c r="H3">
         <v>0.9828667731092312</v>
       </c>
-      <c r="E3">
-        <v>1.002649491435466</v>
-      </c>
-      <c r="F3">
-        <v>1.007416806520792</v>
-      </c>
-      <c r="G3">
-        <v>1.006454726615503</v>
-      </c>
-      <c r="H3">
-        <v>0.991430912204182</v>
-      </c>
       <c r="I3">
-        <v>1.004039379225537</v>
+        <v>0.9828667731092312</v>
       </c>
       <c r="J3">
-        <v>0.9828667731092312</v>
+        <v>1.007416806520791</v>
       </c>
       <c r="K3">
-        <v>1.007416806520792</v>
+        <v>1.007416806520791</v>
       </c>
       <c r="L3">
         <v>1.002649491435466</v>
@@ -776,7 +668,7 @@
         <v>0.9976443570218295</v>
       </c>
       <c r="Q3">
-        <v>0.9976443570218295</v>
+        <v>0.9976443570218293</v>
       </c>
       <c r="R3">
         <v>1.00008746939657</v>
@@ -788,7 +680,7 @@
         <v>0.9991430148517849</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -799,25 +691,25 @@
         <v>1.014134673881566</v>
       </c>
       <c r="D4">
+        <v>0.9834711376313343</v>
+      </c>
+      <c r="E4">
+        <v>1.012612920375124</v>
+      </c>
+      <c r="F4">
+        <v>1.007792802506031</v>
+      </c>
+      <c r="G4">
+        <v>1.005182977435622</v>
+      </c>
+      <c r="H4">
         <v>0.9669519565561844</v>
       </c>
-      <c r="E4">
-        <v>1.005182977435622</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
+        <v>0.9669519565561844</v>
+      </c>
+      <c r="J4">
         <v>1.014134673881566</v>
-      </c>
-      <c r="G4">
-        <v>1.012612920375124</v>
-      </c>
-      <c r="H4">
-        <v>0.9834711376313346</v>
-      </c>
-      <c r="I4">
-        <v>1.007792802506031</v>
-      </c>
-      <c r="J4">
-        <v>0.9669519565561844</v>
       </c>
       <c r="K4">
         <v>1.014134673881566</v>
@@ -850,7 +742,7 @@
         <v>0.9983577447309768</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,25 +753,25 @@
         <v>1.026842009748538</v>
       </c>
       <c r="D5">
+        <v>0.9683249187367245</v>
+      </c>
+      <c r="E5">
+        <v>1.024520278199223</v>
+      </c>
+      <c r="F5">
+        <v>1.014903839837005</v>
+      </c>
+      <c r="G5">
+        <v>1.009991005791239</v>
+      </c>
+      <c r="H5">
         <v>0.9369427190360959</v>
       </c>
-      <c r="E5">
-        <v>1.009991005791239</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
+        <v>0.9369427190360959</v>
+      </c>
+      <c r="J5">
         <v>1.026842009748538</v>
-      </c>
-      <c r="G5">
-        <v>1.024520278199222</v>
-      </c>
-      <c r="H5">
-        <v>0.9683249187367248</v>
-      </c>
-      <c r="I5">
-        <v>1.014903839837005</v>
-      </c>
-      <c r="J5">
-        <v>0.9369427190360959</v>
       </c>
       <c r="K5">
         <v>1.026842009748538</v>
@@ -894,7 +786,7 @@
         <v>0.9734668624136675</v>
       </c>
       <c r="O5">
-        <v>0.9717528811880199</v>
+        <v>0.9717528811880198</v>
       </c>
       <c r="P5">
         <v>0.9912585781919577</v>
@@ -912,7 +804,7 @@
         <v>0.9969207952248041</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,25 +815,25 @@
         <v>1.039199149679358</v>
       </c>
       <c r="D6">
+        <v>0.9535094788986467</v>
+      </c>
+      <c r="E6">
+        <v>1.036142462485546</v>
+      </c>
+      <c r="F6">
+        <v>1.021862185085587</v>
+      </c>
+      <c r="G6">
+        <v>1.014727632610789</v>
+      </c>
+      <c r="H6">
         <v>0.9077662942533322</v>
       </c>
-      <c r="E6">
-        <v>1.014727632610789</v>
-      </c>
-      <c r="F6">
+      <c r="I6">
+        <v>0.9077662942533322</v>
+      </c>
+      <c r="J6">
         <v>1.039199149679358</v>
-      </c>
-      <c r="G6">
-        <v>1.036142462485546</v>
-      </c>
-      <c r="H6">
-        <v>0.9535094788986467</v>
-      </c>
-      <c r="I6">
-        <v>1.021862185085587</v>
-      </c>
-      <c r="J6">
-        <v>0.9077662942533322</v>
       </c>
       <c r="K6">
         <v>1.039199149679358</v>
@@ -974,7 +866,7 @@
         <v>0.9955345338355431</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999781619008445</v>
+        <v>0.9999781619008442</v>
       </c>
       <c r="D7">
+        <v>0.999410753563401</v>
+      </c>
+      <c r="E7">
+        <v>1.001065387726505</v>
+      </c>
+      <c r="F7">
+        <v>1.000249218224188</v>
+      </c>
+      <c r="G7">
+        <v>1.000360764767002</v>
+      </c>
+      <c r="H7">
         <v>0.999108625527915</v>
       </c>
-      <c r="E7">
-        <v>1.000360764767002</v>
-      </c>
-      <c r="F7">
-        <v>0.9999781619008445</v>
-      </c>
-      <c r="G7">
-        <v>1.001065387726505</v>
-      </c>
-      <c r="H7">
-        <v>0.999410753563401</v>
-      </c>
       <c r="I7">
-        <v>1.000249218224188</v>
+        <v>0.999108625527915</v>
       </c>
       <c r="J7">
-        <v>0.999108625527915</v>
+        <v>0.9999781619008442</v>
       </c>
       <c r="K7">
-        <v>0.9999781619008445</v>
+        <v>0.9999781619008442</v>
       </c>
       <c r="L7">
         <v>1.000360764767002</v>
@@ -1036,7 +928,7 @@
         <v>1.000028818618309</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +936,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999526229478879</v>
+        <v>0.9999526229478881</v>
       </c>
       <c r="D8">
-        <v>0.9977106898975965</v>
+        <v>0.9984979269564394</v>
       </c>
       <c r="E8">
+        <v>1.002696143912568</v>
+      </c>
+      <c r="F8">
+        <v>1.000637805822004</v>
+      </c>
+      <c r="G8">
         <v>1.000919774171654</v>
       </c>
-      <c r="F8">
-        <v>0.9999526229478879</v>
-      </c>
-      <c r="G8">
-        <v>1.002696143912567</v>
-      </c>
       <c r="H8">
-        <v>0.9984979269564394</v>
+        <v>0.9977106898975966</v>
       </c>
       <c r="I8">
-        <v>1.000637805822004</v>
+        <v>0.9977106898975966</v>
       </c>
       <c r="J8">
-        <v>0.9977106898975965</v>
+        <v>0.9999526229478881</v>
       </c>
       <c r="K8">
-        <v>0.9999526229478879</v>
+        <v>0.9999526229478881</v>
       </c>
       <c r="L8">
         <v>1.000919774171654</v>
       </c>
       <c r="M8">
-        <v>0.9993152320346254</v>
+        <v>0.9993152320346255</v>
       </c>
       <c r="N8">
-        <v>0.9993152320346254</v>
+        <v>0.9993152320346255</v>
       </c>
       <c r="O8">
         <v>0.9990427970085634</v>
       </c>
       <c r="P8">
-        <v>0.9995276956723794</v>
+        <v>0.9995276956723798</v>
       </c>
       <c r="Q8">
-        <v>0.9995276956723794</v>
+        <v>0.9995276956723798</v>
       </c>
       <c r="R8">
-        <v>0.9996339274912566</v>
+        <v>0.9996339274912569</v>
       </c>
       <c r="S8">
-        <v>0.9996339274912566</v>
+        <v>0.9996339274912569</v>
       </c>
       <c r="T8">
         <v>1.000069160618025</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1109,25 +1001,25 @@
         <v>0.9999649963790531</v>
       </c>
       <c r="D9">
+        <v>0.9978953533951669</v>
+      </c>
+      <c r="E9">
+        <v>1.003724799834581</v>
+      </c>
+      <c r="F9">
+        <v>1.0008984834461</v>
+      </c>
+      <c r="G9">
+        <v>1.001282635235409</v>
+      </c>
+      <c r="H9">
         <v>0.996758842187877</v>
       </c>
-      <c r="E9">
-        <v>1.001282635235409</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
+        <v>0.996758842187877</v>
+      </c>
+      <c r="J9">
         <v>0.9999649963790531</v>
-      </c>
-      <c r="G9">
-        <v>1.003724799834581</v>
-      </c>
-      <c r="H9">
-        <v>0.9978953533951669</v>
-      </c>
-      <c r="I9">
-        <v>1.0008984834461</v>
-      </c>
-      <c r="J9">
-        <v>0.996758842187877</v>
       </c>
       <c r="K9">
         <v>0.9999649963790531</v>
@@ -1160,7 +1052,7 @@
         <v>1.000087518413031</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1171,25 +1063,25 @@
         <v>0.9999236825514229</v>
       </c>
       <c r="D10">
+        <v>0.9954629817593231</v>
+      </c>
+      <c r="E10">
+        <v>1.008044308874444</v>
+      </c>
+      <c r="F10">
+        <v>1.001934557447697</v>
+      </c>
+      <c r="G10">
+        <v>1.002762080128579</v>
+      </c>
+      <c r="H10">
         <v>0.9930211386196439</v>
       </c>
-      <c r="E10">
-        <v>1.002762080128579</v>
-      </c>
-      <c r="F10">
+      <c r="I10">
+        <v>0.9930211386196439</v>
+      </c>
+      <c r="J10">
         <v>0.9999236825514229</v>
-      </c>
-      <c r="G10">
-        <v>1.008044308874444</v>
-      </c>
-      <c r="H10">
-        <v>0.9954629817593231</v>
-      </c>
-      <c r="I10">
-        <v>1.001934557447697</v>
-      </c>
-      <c r="J10">
-        <v>0.9930211386196439</v>
       </c>
       <c r="K10">
         <v>0.9999236825514229</v>
@@ -1222,7 +1114,7 @@
         <v>1.000191458230185</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1233,25 +1125,25 @@
         <v>0.9999327247296158</v>
       </c>
       <c r="D11">
+        <v>0.9924720580708652</v>
+      </c>
+      <c r="E11">
+        <v>1.013227235868085</v>
+      </c>
+      <c r="F11">
+        <v>1.003223339131017</v>
+      </c>
+      <c r="G11">
+        <v>1.004577501320205</v>
+      </c>
+      <c r="H11">
         <v>0.9883281242694535</v>
       </c>
-      <c r="E11">
-        <v>1.004577501320205</v>
-      </c>
-      <c r="F11">
+      <c r="I11">
+        <v>0.9883281242694535</v>
+      </c>
+      <c r="J11">
         <v>0.9999327247296158</v>
-      </c>
-      <c r="G11">
-        <v>1.013227235868085</v>
-      </c>
-      <c r="H11">
-        <v>0.9924720580708655</v>
-      </c>
-      <c r="I11">
-        <v>1.003223339131017</v>
-      </c>
-      <c r="J11">
-        <v>0.9883281242694535</v>
       </c>
       <c r="K11">
         <v>0.9999327247296158</v>
@@ -1284,7 +1176,7 @@
         <v>1.00029349723154</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1295,31 +1187,31 @@
         <v>1.034299235804317</v>
       </c>
       <c r="D12">
+        <v>1.065715635334983</v>
+      </c>
+      <c r="E12">
+        <v>0.8459595168994624</v>
+      </c>
+      <c r="F12">
+        <v>0.9736475715613275</v>
+      </c>
+      <c r="G12">
+        <v>0.9486880292113041</v>
+      </c>
+      <c r="H12">
         <v>1.082247054752975</v>
       </c>
-      <c r="E12">
-        <v>0.9486880292113042</v>
-      </c>
-      <c r="F12">
+      <c r="I12">
+        <v>1.082247054752975</v>
+      </c>
+      <c r="J12">
         <v>1.034299235804317</v>
-      </c>
-      <c r="G12">
-        <v>0.8459595168994626</v>
-      </c>
-      <c r="H12">
-        <v>1.065715635334983</v>
-      </c>
-      <c r="I12">
-        <v>0.9736475715613275</v>
-      </c>
-      <c r="J12">
-        <v>1.082247054752975</v>
       </c>
       <c r="K12">
         <v>1.034299235804317</v>
       </c>
       <c r="L12">
-        <v>0.9486880292113042</v>
+        <v>0.9486880292113041</v>
       </c>
       <c r="M12">
         <v>1.01546754198214</v>
@@ -1346,7 +1238,7 @@
         <v>0.9917595072607283</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1357,25 +1249,25 @@
         <v>0.9645573647888191</v>
       </c>
       <c r="D13">
+        <v>1.018276349339149</v>
+      </c>
+      <c r="E13">
+        <v>1.00942777778985</v>
+      </c>
+      <c r="F13">
+        <v>0.9901223040686719</v>
+      </c>
+      <c r="G13">
+        <v>1.000642851821473</v>
+      </c>
+      <c r="H13">
         <v>1.050096038616672</v>
       </c>
-      <c r="E13">
-        <v>1.000642851821473</v>
-      </c>
-      <c r="F13">
+      <c r="I13">
+        <v>1.050096038616672</v>
+      </c>
+      <c r="J13">
         <v>0.9645573647888191</v>
-      </c>
-      <c r="G13">
-        <v>1.00942777778985</v>
-      </c>
-      <c r="H13">
-        <v>1.018276349339149</v>
-      </c>
-      <c r="I13">
-        <v>0.9901223040686719</v>
-      </c>
-      <c r="J13">
-        <v>1.050096038616672</v>
       </c>
       <c r="K13">
         <v>0.9645573647888191</v>
@@ -1408,7 +1300,7 @@
         <v>1.005520447737439</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1419,31 +1311,31 @@
         <v>1.035987231812905</v>
       </c>
       <c r="D14">
+        <v>1.065926112515618</v>
+      </c>
+      <c r="E14">
+        <v>0.8413008552341321</v>
+      </c>
+      <c r="F14">
+        <v>0.9742366007178362</v>
+      </c>
+      <c r="G14">
+        <v>0.948824807966586</v>
+      </c>
+      <c r="H14">
         <v>1.076880447286525</v>
       </c>
-      <c r="E14">
-        <v>0.9488248079665859</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
+        <v>1.076880447286525</v>
+      </c>
+      <c r="J14">
         <v>1.035987231812905</v>
-      </c>
-      <c r="G14">
-        <v>0.8413008552341322</v>
-      </c>
-      <c r="H14">
-        <v>1.065926112515618</v>
-      </c>
-      <c r="I14">
-        <v>0.9742366007178364</v>
-      </c>
-      <c r="J14">
-        <v>1.076880447286525</v>
       </c>
       <c r="K14">
         <v>1.035987231812905</v>
       </c>
       <c r="L14">
-        <v>0.9488248079665859</v>
+        <v>0.948824807966586</v>
       </c>
       <c r="M14">
         <v>1.012852627626555</v>
@@ -1467,10 +1359,10 @@
         <v>1.02441992971973</v>
       </c>
       <c r="T14">
-        <v>0.9905260092556003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0.9905260092556002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1481,25 +1373,25 @@
         <v>0.9652915770361605</v>
       </c>
       <c r="D15">
+        <v>1.017857111946835</v>
+      </c>
+      <c r="E15">
+        <v>1.011927935158048</v>
+      </c>
+      <c r="F15">
+        <v>0.9896429273507429</v>
+      </c>
+      <c r="G15">
+        <v>0.9996640585699197</v>
+      </c>
+      <c r="H15">
         <v>1.055007825826831</v>
       </c>
-      <c r="E15">
-        <v>0.9996640585699197</v>
-      </c>
-      <c r="F15">
+      <c r="I15">
+        <v>1.055007825826831</v>
+      </c>
+      <c r="J15">
         <v>0.9652915770361605</v>
-      </c>
-      <c r="G15">
-        <v>1.011927935158048</v>
-      </c>
-      <c r="H15">
-        <v>1.017857111946835</v>
-      </c>
-      <c r="I15">
-        <v>0.9896429273507429</v>
-      </c>
-      <c r="J15">
-        <v>1.055007825826831</v>
       </c>
       <c r="K15">
         <v>0.9652915770361605</v>
@@ -1532,7 +1424,7 @@
         <v>1.006565239314756</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000444110696499</v>
+        <v>1.136606370124015</v>
       </c>
       <c r="D16">
-        <v>0.999843814553768</v>
+        <v>0.8332673423357858</v>
       </c>
       <c r="E16">
-        <v>0.9998474579540093</v>
+        <v>1.134170668311376</v>
       </c>
       <c r="F16">
-        <v>1.000444110696499</v>
+        <v>1.078307979297127</v>
       </c>
       <c r="G16">
-        <v>0.9997000822081422</v>
+        <v>1.054316870575601</v>
       </c>
       <c r="H16">
-        <v>0.9999445733183495</v>
+        <v>0.6696139044116777</v>
       </c>
       <c r="I16">
-        <v>1.000021408762528</v>
+        <v>0.6696139044116777</v>
       </c>
       <c r="J16">
-        <v>0.999843814553768</v>
+        <v>1.136606370124015</v>
       </c>
       <c r="K16">
-        <v>1.000444110696499</v>
+        <v>1.136606370124015</v>
       </c>
       <c r="L16">
-        <v>0.9998474579540093</v>
+        <v>1.054316870575601</v>
       </c>
       <c r="M16">
-        <v>0.9998456362538887</v>
+        <v>0.8619653874936393</v>
       </c>
       <c r="N16">
-        <v>0.9998456362538887</v>
+        <v>0.8619653874936393</v>
       </c>
       <c r="O16">
-        <v>0.9998786152753757</v>
+        <v>0.8523993724410214</v>
       </c>
       <c r="P16">
-        <v>1.000045127734759</v>
+        <v>0.9535123817037645</v>
       </c>
       <c r="Q16">
-        <v>1.000045127734759</v>
+        <v>0.9535123817037645</v>
       </c>
       <c r="R16">
-        <v>1.000144873475194</v>
+        <v>0.9992858788088272</v>
       </c>
       <c r="S16">
-        <v>1.000144873475194</v>
+        <v>0.9992858788088272</v>
       </c>
       <c r="T16">
-        <v>0.9999669079155492</v>
+        <v>0.9843805225092638</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9991815967586943</v>
+        <v>1.093275464107562</v>
       </c>
       <c r="D17">
-        <v>0.9992038155274826</v>
+        <v>0.8642778290960602</v>
       </c>
       <c r="E17">
-        <v>1.000728706520544</v>
+        <v>1.130068041821409</v>
       </c>
       <c r="F17">
-        <v>0.9991815967586943</v>
+        <v>1.062794414178168</v>
       </c>
       <c r="G17">
-        <v>1.002033769140755</v>
+        <v>1.0502507703304</v>
       </c>
       <c r="H17">
-        <v>0.9993114353705799</v>
+        <v>0.7407206964434987</v>
       </c>
       <c r="I17">
-        <v>1.000277653754377</v>
+        <v>0.7407206964434987</v>
       </c>
       <c r="J17">
-        <v>0.9992038155274826</v>
+        <v>1.093275464107562</v>
       </c>
       <c r="K17">
-        <v>0.9991815967586943</v>
+        <v>1.093275464107562</v>
       </c>
       <c r="L17">
-        <v>1.000728706520544</v>
+        <v>1.0502507703304</v>
       </c>
       <c r="M17">
-        <v>0.9999662610240134</v>
+        <v>0.8954857333869493</v>
       </c>
       <c r="N17">
-        <v>0.9999662610240134</v>
+        <v>0.8954857333869493</v>
       </c>
       <c r="O17">
-        <v>0.9997479858062022</v>
+        <v>0.8850830986233196</v>
       </c>
       <c r="P17">
-        <v>0.9997047062689072</v>
+        <v>0.9614156436271535</v>
       </c>
       <c r="Q17">
-        <v>0.9997047062689072</v>
+        <v>0.9614156436271535</v>
       </c>
       <c r="R17">
-        <v>0.9995739288913539</v>
+        <v>0.9943805987472556</v>
       </c>
       <c r="S17">
-        <v>0.9995739288913539</v>
+        <v>0.9943805987472556</v>
       </c>
       <c r="T17">
-        <v>1.000122829512072</v>
+        <v>0.9902312026628496</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004092283779646</v>
+        <v>1.006963329455335</v>
       </c>
       <c r="D18">
-        <v>0.9940334462267663</v>
+        <v>0.9266025839728657</v>
       </c>
       <c r="E18">
-        <v>1.000160533541864</v>
+        <v>1.120893228552977</v>
       </c>
       <c r="F18">
-        <v>1.004092283779646</v>
+        <v>1.031662359869368</v>
       </c>
       <c r="G18">
-        <v>1.000326193131842</v>
+        <v>1.041826568094793</v>
       </c>
       <c r="H18">
-        <v>0.9972864496660786</v>
+        <v>0.883175555302447</v>
       </c>
       <c r="I18">
-        <v>1.001306817296177</v>
+        <v>0.883175555302447</v>
       </c>
       <c r="J18">
-        <v>0.9940334462267663</v>
+        <v>1.006963329455335</v>
       </c>
       <c r="K18">
-        <v>1.004092283779646</v>
+        <v>1.006963329455335</v>
       </c>
       <c r="L18">
-        <v>1.000160533541864</v>
+        <v>1.041826568094793</v>
       </c>
       <c r="M18">
-        <v>0.9970969898843154</v>
+        <v>0.9625010616986198</v>
       </c>
       <c r="N18">
-        <v>0.9970969898843154</v>
+        <v>0.9625010616986198</v>
       </c>
       <c r="O18">
-        <v>0.9971601431449031</v>
+        <v>0.9505349024567017</v>
       </c>
       <c r="P18">
-        <v>0.9994287545160923</v>
+        <v>0.9773218176175247</v>
       </c>
       <c r="Q18">
-        <v>0.9994287545160923</v>
+        <v>0.9773218176175247</v>
       </c>
       <c r="R18">
-        <v>1.000594636831981</v>
+        <v>0.9847321955769772</v>
       </c>
       <c r="S18">
-        <v>1.000594636831981</v>
+        <v>0.9847321955769772</v>
       </c>
       <c r="T18">
-        <v>0.9995342872737289</v>
+        <v>1.001853937541297</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9994065467765426</v>
+      </c>
+      <c r="D19">
+        <v>0.9200807547264314</v>
+      </c>
+      <c r="E19">
+        <v>1.142141344786158</v>
+      </c>
+      <c r="F19">
+        <v>1.033793120963087</v>
+      </c>
+      <c r="G19">
+        <v>1.047943965135553</v>
+      </c>
+      <c r="H19">
+        <v>0.8792042961449239</v>
+      </c>
+      <c r="I19">
+        <v>0.8792042961449239</v>
+      </c>
+      <c r="J19">
+        <v>0.9994065467765426</v>
+      </c>
+      <c r="K19">
+        <v>0.9994065467765426</v>
+      </c>
+      <c r="L19">
+        <v>1.047943965135553</v>
+      </c>
+      <c r="M19">
+        <v>0.9635741306402386</v>
+      </c>
+      <c r="N19">
+        <v>0.9635741306402386</v>
+      </c>
+      <c r="O19">
+        <v>0.9490763386689695</v>
+      </c>
+      <c r="P19">
+        <v>0.97551826935234</v>
+      </c>
+      <c r="Q19">
+        <v>0.97551826935234</v>
+      </c>
+      <c r="R19">
+        <v>0.9814903387083906</v>
+      </c>
+      <c r="S19">
+        <v>0.9814903387083906</v>
+      </c>
+      <c r="T19">
+        <v>1.003761671422116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000444110696499</v>
+      </c>
+      <c r="D20">
+        <v>0.9999445733183495</v>
+      </c>
+      <c r="E20">
+        <v>0.9997000822081422</v>
+      </c>
+      <c r="F20">
+        <v>1.000021408762528</v>
+      </c>
+      <c r="G20">
+        <v>0.9998474579540093</v>
+      </c>
+      <c r="H20">
+        <v>0.9998438145537676</v>
+      </c>
+      <c r="I20">
+        <v>0.9998438145537676</v>
+      </c>
+      <c r="J20">
+        <v>1.000444110696499</v>
+      </c>
+      <c r="K20">
+        <v>1.000444110696499</v>
+      </c>
+      <c r="L20">
+        <v>0.9998474579540093</v>
+      </c>
+      <c r="M20">
+        <v>0.9998456362538884</v>
+      </c>
+      <c r="N20">
+        <v>0.9998456362538884</v>
+      </c>
+      <c r="O20">
+        <v>0.9998786152753755</v>
+      </c>
+      <c r="P20">
+        <v>1.000045127734759</v>
+      </c>
+      <c r="Q20">
+        <v>1.000045127734759</v>
+      </c>
+      <c r="R20">
+        <v>1.000144873475194</v>
+      </c>
+      <c r="S20">
+        <v>1.000144873475194</v>
+      </c>
+      <c r="T20">
+        <v>0.9999669079155492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9991815967586943</v>
+      </c>
+      <c r="D21">
+        <v>0.99931143537058</v>
+      </c>
+      <c r="E21">
+        <v>1.002033769140755</v>
+      </c>
+      <c r="F21">
+        <v>1.000277653754377</v>
+      </c>
+      <c r="G21">
+        <v>1.000728706520544</v>
+      </c>
+      <c r="H21">
+        <v>0.9992038155274823</v>
+      </c>
+      <c r="I21">
+        <v>0.9992038155274823</v>
+      </c>
+      <c r="J21">
+        <v>0.9991815967586943</v>
+      </c>
+      <c r="K21">
+        <v>0.9991815967586943</v>
+      </c>
+      <c r="L21">
+        <v>1.000728706520544</v>
+      </c>
+      <c r="M21">
+        <v>0.9999662610240133</v>
+      </c>
+      <c r="N21">
+        <v>0.9999662610240133</v>
+      </c>
+      <c r="O21">
+        <v>0.9997479858062022</v>
+      </c>
+      <c r="P21">
+        <v>0.999704706268907</v>
+      </c>
+      <c r="Q21">
+        <v>0.999704706268907</v>
+      </c>
+      <c r="R21">
+        <v>0.9995739288913539</v>
+      </c>
+      <c r="S21">
+        <v>0.9995739288913539</v>
+      </c>
+      <c r="T21">
+        <v>1.000122829512072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.004092283779646</v>
+      </c>
+      <c r="D22">
+        <v>0.9972864496660786</v>
+      </c>
+      <c r="E22">
+        <v>1.000326193131842</v>
+      </c>
+      <c r="F22">
+        <v>1.001306817296177</v>
+      </c>
+      <c r="G22">
+        <v>1.000160533541865</v>
+      </c>
+      <c r="H22">
+        <v>0.9940334462267661</v>
+      </c>
+      <c r="I22">
+        <v>0.9940334462267661</v>
+      </c>
+      <c r="J22">
+        <v>1.004092283779646</v>
+      </c>
+      <c r="K22">
+        <v>1.004092283779646</v>
+      </c>
+      <c r="L22">
+        <v>1.000160533541865</v>
+      </c>
+      <c r="M22">
+        <v>0.9970969898843154</v>
+      </c>
+      <c r="N22">
+        <v>0.9970969898843154</v>
+      </c>
+      <c r="O22">
+        <v>0.9971601431449031</v>
+      </c>
+      <c r="P22">
+        <v>0.9994287545160923</v>
+      </c>
+      <c r="Q22">
+        <v>0.9994287545160923</v>
+      </c>
+      <c r="R22">
+        <v>1.000594636831981</v>
+      </c>
+      <c r="S22">
+        <v>1.000594636831981</v>
+      </c>
+      <c r="T22">
+        <v>0.9995342872737291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.014320836416371</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>0.9934298660006664</v>
+      </c>
+      <c r="E23">
+        <v>0.9962699872529285</v>
+      </c>
+      <c r="F23">
+        <v>1.003261579577479</v>
+      </c>
+      <c r="G23">
+        <v>0.9987104479241441</v>
+      </c>
+      <c r="H23">
         <v>0.9841079466769528</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>0.9841079466769528</v>
+      </c>
+      <c r="J23">
+        <v>1.014320836416371</v>
+      </c>
+      <c r="K23">
+        <v>1.014320836416371</v>
+      </c>
+      <c r="L23">
         <v>0.9987104479241441</v>
       </c>
-      <c r="F19">
-        <v>1.014320836416371</v>
-      </c>
-      <c r="G19">
-        <v>0.9962699872529285</v>
-      </c>
-      <c r="H19">
-        <v>0.9934298660006664</v>
-      </c>
-      <c r="I19">
-        <v>1.003261579577479</v>
-      </c>
-      <c r="J19">
-        <v>0.9841079466769528</v>
-      </c>
-      <c r="K19">
-        <v>1.014320836416371</v>
-      </c>
-      <c r="L19">
-        <v>0.9987104479241441</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9914091973005484</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9914091973005484</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9920827535339211</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999046410339156</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.999046410339156</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.00286501685846</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.00286501685846</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9983501106414235</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.007416806520791</v>
+        <v>1.008810256138329</v>
       </c>
       <c r="D3">
-        <v>0.991430912204182</v>
+        <v>0.9130316535518725</v>
       </c>
       <c r="E3">
-        <v>1.006454726615503</v>
+        <v>1.142954550252163</v>
       </c>
       <c r="F3">
-        <v>1.004039379225537</v>
+        <v>1.037466948242076</v>
       </c>
       <c r="G3">
-        <v>1.002649491435466</v>
+        <v>1.04925982072046</v>
       </c>
       <c r="H3">
-        <v>0.9828667731092312</v>
+        <v>0.8618115352017307</v>
       </c>
       <c r="I3">
-        <v>0.9828667731092312</v>
+        <v>0.8618115352017307</v>
       </c>
       <c r="J3">
-        <v>1.007416806520791</v>
+        <v>1.008810256138329</v>
       </c>
       <c r="K3">
-        <v>1.007416806520791</v>
+        <v>1.008810256138329</v>
       </c>
       <c r="L3">
-        <v>1.002649491435466</v>
+        <v>1.04925982072046</v>
       </c>
       <c r="M3">
-        <v>0.9927581322723484</v>
+        <v>0.9555356779610953</v>
       </c>
       <c r="N3">
-        <v>0.9927581322723484</v>
+        <v>0.9555356779610953</v>
       </c>
       <c r="O3">
-        <v>0.9923157255829596</v>
+        <v>0.9413676698246878</v>
       </c>
       <c r="P3">
-        <v>0.9976443570218295</v>
+        <v>0.9732938706868398</v>
       </c>
       <c r="Q3">
-        <v>0.9976443570218293</v>
+        <v>0.9732938706868399</v>
       </c>
       <c r="R3">
-        <v>1.00008746939657</v>
+        <v>0.9821729670497121</v>
       </c>
       <c r="S3">
-        <v>1.00008746939657</v>
+        <v>0.9821729670497121</v>
       </c>
       <c r="T3">
-        <v>0.9991430148517849</v>
+        <v>1.002222460684438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.014134673881566</v>
+        <v>1.007534140902909</v>
       </c>
       <c r="D4">
-        <v>0.9834711376313343</v>
+        <v>0.9204466089834121</v>
       </c>
       <c r="E4">
-        <v>1.012612920375124</v>
+        <v>1.131246238607905</v>
       </c>
       <c r="F4">
-        <v>1.007792802506031</v>
+        <v>1.034273494774512</v>
       </c>
       <c r="G4">
-        <v>1.005182977435622</v>
+        <v>1.045277340301904</v>
       </c>
       <c r="H4">
-        <v>0.9669519565561844</v>
+        <v>0.8736815159047732</v>
       </c>
       <c r="I4">
-        <v>0.9669519565561844</v>
+        <v>0.8736815159047732</v>
       </c>
       <c r="J4">
-        <v>1.014134673881566</v>
+        <v>1.007534140902909</v>
       </c>
       <c r="K4">
-        <v>1.014134673881566</v>
+        <v>1.007534140902909</v>
       </c>
       <c r="L4">
-        <v>1.005182977435622</v>
+        <v>1.045277340301904</v>
       </c>
       <c r="M4">
-        <v>0.9860674669959031</v>
+        <v>0.9594794281033385</v>
       </c>
       <c r="N4">
-        <v>0.9860674669959031</v>
+        <v>0.9594794281033385</v>
       </c>
       <c r="O4">
-        <v>0.9852020238743803</v>
+        <v>0.9464684883966964</v>
       </c>
       <c r="P4">
-        <v>0.9954232026244574</v>
+        <v>0.9754976657031952</v>
       </c>
       <c r="Q4">
-        <v>0.9954232026244574</v>
+        <v>0.9754976657031952</v>
       </c>
       <c r="R4">
-        <v>1.000101070438735</v>
+        <v>0.9835067845031236</v>
       </c>
       <c r="S4">
-        <v>1.000101070438735</v>
+        <v>0.9835067845031236</v>
       </c>
       <c r="T4">
-        <v>0.9983577447309768</v>
+        <v>1.002076556579236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.026842009748538</v>
+        <v>1.011037589433963</v>
       </c>
       <c r="D5">
-        <v>0.9683249187367245</v>
+        <v>0.898935287708895</v>
       </c>
       <c r="E5">
-        <v>1.024520278199223</v>
+        <v>1.165429584582211</v>
       </c>
       <c r="F5">
-        <v>1.014903839837005</v>
+        <v>1.043530751347708</v>
       </c>
       <c r="G5">
-        <v>1.009991005791239</v>
+        <v>1.056902413234501</v>
       </c>
       <c r="H5">
-        <v>0.9369427190360959</v>
+        <v>0.8393286590026964</v>
       </c>
       <c r="I5">
-        <v>0.9369427190360959</v>
+        <v>0.8393286590026964</v>
       </c>
       <c r="J5">
-        <v>1.026842009748538</v>
+        <v>1.011037589433963</v>
       </c>
       <c r="K5">
-        <v>1.026842009748538</v>
+        <v>1.011037589433963</v>
       </c>
       <c r="L5">
-        <v>1.009991005791239</v>
+        <v>1.056902413234501</v>
       </c>
       <c r="M5">
-        <v>0.9734668624136675</v>
+        <v>0.9481155361185987</v>
       </c>
       <c r="N5">
-        <v>0.9734668624136675</v>
+        <v>0.9481155361185987</v>
       </c>
       <c r="O5">
-        <v>0.9717528811880198</v>
+        <v>0.9317221199820308</v>
       </c>
       <c r="P5">
-        <v>0.9912585781919577</v>
+        <v>0.9690895538903869</v>
       </c>
       <c r="Q5">
-        <v>0.9912585781919577</v>
+        <v>0.9690895538903868</v>
       </c>
       <c r="R5">
-        <v>1.000154436081103</v>
+        <v>0.9795765627762809</v>
       </c>
       <c r="S5">
-        <v>1.000154436081103</v>
+        <v>0.9795765627762809</v>
       </c>
       <c r="T5">
-        <v>0.9969207952248041</v>
+        <v>1.002527380884996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.039199149679358</v>
+        <v>1.012883977386363</v>
       </c>
       <c r="D6">
-        <v>0.9535094788986467</v>
+        <v>0.8857562516477269</v>
       </c>
       <c r="E6">
-        <v>1.036142462485546</v>
+        <v>1.186699485568182</v>
       </c>
       <c r="F6">
-        <v>1.021862185085587</v>
+        <v>1.049191418011363</v>
       </c>
       <c r="G6">
-        <v>1.014727632610789</v>
+        <v>1.064132742102274</v>
       </c>
       <c r="H6">
-        <v>0.9077662942533322</v>
+        <v>0.8184072323295453</v>
       </c>
       <c r="I6">
-        <v>0.9077662942533322</v>
+        <v>0.8184072323295453</v>
       </c>
       <c r="J6">
-        <v>1.039199149679358</v>
+        <v>1.012883977386363</v>
       </c>
       <c r="K6">
-        <v>1.039199149679358</v>
+        <v>1.012883977386363</v>
       </c>
       <c r="L6">
-        <v>1.014727632610789</v>
+        <v>1.064132742102274</v>
       </c>
       <c r="M6">
-        <v>0.9612469634320605</v>
+        <v>0.9412699872159095</v>
       </c>
       <c r="N6">
-        <v>0.9612469634320605</v>
+        <v>0.9412699872159095</v>
       </c>
       <c r="O6">
-        <v>0.9586678019209226</v>
+        <v>0.9227654086931819</v>
       </c>
       <c r="P6">
-        <v>0.9872310255144932</v>
+        <v>0.9651413172727276</v>
       </c>
       <c r="Q6">
-        <v>0.9872310255144932</v>
+        <v>0.9651413172727276</v>
       </c>
       <c r="R6">
-        <v>1.00022305655571</v>
+        <v>0.9770769823011365</v>
       </c>
       <c r="S6">
-        <v>1.00022305655571</v>
+        <v>0.9770769823011365</v>
       </c>
       <c r="T6">
-        <v>0.9955345338355431</v>
+        <v>1.002845184507576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999781619008442</v>
+        <v>0.9568366617165661</v>
       </c>
       <c r="D7">
-        <v>0.999410753563401</v>
+        <v>0.952495369089512</v>
       </c>
       <c r="E7">
-        <v>1.001065387726505</v>
+        <v>1.13909343686716</v>
       </c>
       <c r="F7">
-        <v>1.000249218224188</v>
+        <v>1.016444982747668</v>
       </c>
       <c r="G7">
-        <v>1.000360764767002</v>
+        <v>1.040975142816576</v>
       </c>
       <c r="H7">
-        <v>0.999108625527915</v>
+        <v>0.9638360393000722</v>
       </c>
       <c r="I7">
-        <v>0.999108625527915</v>
+        <v>0.9638360393000722</v>
       </c>
       <c r="J7">
-        <v>0.9999781619008442</v>
+        <v>0.9568366617165661</v>
       </c>
       <c r="K7">
-        <v>0.9999781619008442</v>
+        <v>0.9568366617165661</v>
       </c>
       <c r="L7">
-        <v>1.000360764767002</v>
+        <v>1.040975142816576</v>
       </c>
       <c r="M7">
-        <v>0.9997346951474584</v>
+        <v>1.002405591058324</v>
       </c>
       <c r="N7">
-        <v>0.9997346951474584</v>
+        <v>1.002405591058324</v>
       </c>
       <c r="O7">
-        <v>0.9996267146194393</v>
+        <v>0.9857688504020535</v>
       </c>
       <c r="P7">
-        <v>0.9998158507319204</v>
+        <v>0.9872159479444048</v>
       </c>
       <c r="Q7">
-        <v>0.9998158507319204</v>
+        <v>0.9872159479444048</v>
       </c>
       <c r="R7">
-        <v>0.9998564285241514</v>
+        <v>0.9796211263874451</v>
       </c>
       <c r="S7">
-        <v>0.9998564285241514</v>
+        <v>0.9796211263874451</v>
       </c>
       <c r="T7">
-        <v>1.000028818618309</v>
+        <v>1.011613605422926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999526229478881</v>
+        <v>0.956850357467216</v>
       </c>
       <c r="D8">
-        <v>0.9984979269564394</v>
+        <v>0.9505915255347241</v>
       </c>
       <c r="E8">
-        <v>1.002696143912568</v>
+        <v>1.142382644922473</v>
       </c>
       <c r="F8">
-        <v>1.000637805822004</v>
+        <v>1.017268461113676</v>
       </c>
       <c r="G8">
-        <v>1.000919774171654</v>
+        <v>1.042131864647791</v>
       </c>
       <c r="H8">
-        <v>0.9977106898975966</v>
+        <v>0.9608000721303295</v>
       </c>
       <c r="I8">
-        <v>0.9977106898975966</v>
+        <v>0.9608000721303295</v>
       </c>
       <c r="J8">
-        <v>0.9999526229478881</v>
+        <v>0.956850357467216</v>
       </c>
       <c r="K8">
-        <v>0.9999526229478881</v>
+        <v>0.956850357467216</v>
       </c>
       <c r="L8">
-        <v>1.000919774171654</v>
+        <v>1.042131864647791</v>
       </c>
       <c r="M8">
-        <v>0.9993152320346255</v>
+        <v>1.00146596838906</v>
       </c>
       <c r="N8">
-        <v>0.9993152320346255</v>
+        <v>1.00146596838906</v>
       </c>
       <c r="O8">
-        <v>0.9990427970085634</v>
+        <v>0.9845078207709482</v>
       </c>
       <c r="P8">
-        <v>0.9995276956723798</v>
+        <v>0.9865940980817788</v>
       </c>
       <c r="Q8">
-        <v>0.9995276956723798</v>
+        <v>0.9865940980817788</v>
       </c>
       <c r="R8">
-        <v>0.9996339274912569</v>
+        <v>0.9791581629281381</v>
       </c>
       <c r="S8">
-        <v>0.9996339274912569</v>
+        <v>0.9791581629281381</v>
       </c>
       <c r="T8">
-        <v>1.000069160618025</v>
+        <v>1.011670820969368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999649963790531</v>
+        <v>0.956679576182355</v>
       </c>
       <c r="D9">
-        <v>0.9978953533951669</v>
+        <v>0.9489711868691032</v>
       </c>
       <c r="E9">
-        <v>1.003724799834581</v>
+        <v>1.145453527735978</v>
       </c>
       <c r="F9">
-        <v>1.0008984834461</v>
+        <v>1.01794668790686</v>
       </c>
       <c r="G9">
-        <v>1.001282635235409</v>
+        <v>1.043159477139668</v>
       </c>
       <c r="H9">
-        <v>0.996758842187877</v>
+        <v>0.9584013709915723</v>
       </c>
       <c r="I9">
-        <v>0.996758842187877</v>
+        <v>0.9584013709915723</v>
       </c>
       <c r="J9">
-        <v>0.9999649963790531</v>
+        <v>0.956679576182355</v>
       </c>
       <c r="K9">
-        <v>0.9999649963790531</v>
+        <v>0.956679576182355</v>
       </c>
       <c r="L9">
-        <v>1.001282635235409</v>
+        <v>1.043159477139668</v>
       </c>
       <c r="M9">
-        <v>0.9990207387116429</v>
+        <v>1.00078042406562</v>
       </c>
       <c r="N9">
-        <v>0.9990207387116429</v>
+        <v>1.00078042406562</v>
       </c>
       <c r="O9">
-        <v>0.9986456102728175</v>
+        <v>0.983510678333448</v>
       </c>
       <c r="P9">
-        <v>0.9993354912674463</v>
+        <v>0.9860801414378653</v>
       </c>
       <c r="Q9">
-        <v>0.9993354912674463</v>
+        <v>0.9860801414378653</v>
       </c>
       <c r="R9">
-        <v>0.9994928675453481</v>
+        <v>0.9787300001239877</v>
       </c>
       <c r="S9">
-        <v>0.9994928675453481</v>
+        <v>0.9787300001239877</v>
       </c>
       <c r="T9">
-        <v>1.000087518413031</v>
+        <v>1.011768637804256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999236825514229</v>
+        <v>0.956629030774329</v>
       </c>
       <c r="D10">
-        <v>0.9954629817593231</v>
+        <v>0.9451423356940034</v>
       </c>
       <c r="E10">
-        <v>1.008044308874444</v>
+        <v>1.152013242931318</v>
       </c>
       <c r="F10">
-        <v>1.001934557447697</v>
+        <v>1.019631826500113</v>
       </c>
       <c r="G10">
-        <v>1.002762080128579</v>
+        <v>1.045558887887657</v>
       </c>
       <c r="H10">
-        <v>0.9930211386196439</v>
+        <v>0.9521033544260917</v>
       </c>
       <c r="I10">
-        <v>0.9930211386196439</v>
+        <v>0.9521033544260917</v>
       </c>
       <c r="J10">
-        <v>0.9999236825514229</v>
+        <v>0.956629030774329</v>
       </c>
       <c r="K10">
-        <v>0.9999236825514229</v>
+        <v>0.956629030774329</v>
       </c>
       <c r="L10">
-        <v>1.002762080128579</v>
+        <v>1.045558887887657</v>
       </c>
       <c r="M10">
-        <v>0.9978916093741117</v>
+        <v>0.9988311211568744</v>
       </c>
       <c r="N10">
-        <v>0.9978916093741117</v>
+        <v>0.9988311211568744</v>
       </c>
       <c r="O10">
-        <v>0.9970820668358488</v>
+        <v>0.9809348593359175</v>
       </c>
       <c r="P10">
-        <v>0.9985689670998821</v>
+        <v>0.984763757696026</v>
       </c>
       <c r="Q10">
-        <v>0.9985689670998821</v>
+        <v>0.984763757696026</v>
       </c>
       <c r="R10">
-        <v>0.9989076459627673</v>
+        <v>0.9777300759656018</v>
       </c>
       <c r="S10">
-        <v>0.9989076459627673</v>
+        <v>0.9777300759656018</v>
       </c>
       <c r="T10">
-        <v>1.000191458230185</v>
+        <v>1.011846446368919</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999327247296158</v>
+        <v>1.007762072131477</v>
       </c>
       <c r="D11">
-        <v>0.9924720580708652</v>
+        <v>0.9906628297829714</v>
       </c>
       <c r="E11">
-        <v>1.013227235868085</v>
+        <v>1.00735312536778</v>
       </c>
       <c r="F11">
-        <v>1.003223339131017</v>
+        <v>1.004397526991071</v>
       </c>
       <c r="G11">
-        <v>1.004577501320205</v>
+        <v>1.003012940847726</v>
       </c>
       <c r="H11">
-        <v>0.9883281242694535</v>
+        <v>0.9813991357291133</v>
       </c>
       <c r="I11">
-        <v>0.9883281242694535</v>
+        <v>0.9813991357291133</v>
       </c>
       <c r="J11">
-        <v>0.9999327247296158</v>
+        <v>1.007762072131477</v>
       </c>
       <c r="K11">
-        <v>0.9999327247296158</v>
+        <v>1.007762072131477</v>
       </c>
       <c r="L11">
-        <v>1.004577501320205</v>
+        <v>1.003012940847726</v>
       </c>
       <c r="M11">
-        <v>0.996452812794829</v>
+        <v>0.9922060382884195</v>
       </c>
       <c r="N11">
-        <v>0.996452812794829</v>
+        <v>0.9922060382884195</v>
       </c>
       <c r="O11">
-        <v>0.9951258945535079</v>
+        <v>0.9916916354532702</v>
       </c>
       <c r="P11">
-        <v>0.997612783439758</v>
+        <v>0.997391382902772</v>
       </c>
       <c r="Q11">
-        <v>0.997612783439758</v>
+        <v>0.997391382902772</v>
       </c>
       <c r="R11">
-        <v>0.9981927687622224</v>
+        <v>0.9999840552099482</v>
       </c>
       <c r="S11">
-        <v>0.9981927687622224</v>
+        <v>0.9999840552099482</v>
       </c>
       <c r="T11">
-        <v>1.00029349723154</v>
+        <v>0.9990979384750229</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.034299235804317</v>
+        <v>1.003448053836136</v>
       </c>
       <c r="D12">
-        <v>1.065715635334983</v>
+        <v>0.9955417838831214</v>
       </c>
       <c r="E12">
-        <v>0.8459595168994624</v>
+        <v>1.003869361494778</v>
       </c>
       <c r="F12">
-        <v>0.9736475715613275</v>
+        <v>1.002071663763843</v>
       </c>
       <c r="G12">
-        <v>0.9486880292113041</v>
+        <v>1.001505248555774</v>
       </c>
       <c r="H12">
-        <v>1.082247054752975</v>
+        <v>0.9913706162381425</v>
       </c>
       <c r="I12">
-        <v>1.082247054752975</v>
+        <v>0.9913706162381425</v>
       </c>
       <c r="J12">
-        <v>1.034299235804317</v>
+        <v>1.003448053836136</v>
       </c>
       <c r="K12">
-        <v>1.034299235804317</v>
+        <v>1.003448053836136</v>
       </c>
       <c r="L12">
-        <v>0.9486880292113041</v>
+        <v>1.001505248555774</v>
       </c>
       <c r="M12">
-        <v>1.01546754198214</v>
+        <v>0.9964379323969581</v>
       </c>
       <c r="N12">
-        <v>1.01546754198214</v>
+        <v>0.9964379323969581</v>
       </c>
       <c r="O12">
-        <v>1.032216906433087</v>
+        <v>0.9961392162256791</v>
       </c>
       <c r="P12">
-        <v>1.021744773256199</v>
+        <v>0.9987746395433508</v>
       </c>
       <c r="Q12">
-        <v>1.021744773256199</v>
+        <v>0.9987746395433508</v>
       </c>
       <c r="R12">
-        <v>1.024883388893228</v>
+        <v>0.9999429931165471</v>
       </c>
       <c r="S12">
-        <v>1.024883388893228</v>
+        <v>0.9999429931165471</v>
       </c>
       <c r="T12">
-        <v>0.9917595072607283</v>
+        <v>0.9996344546286325</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9645573647888191</v>
+        <v>1.012082800529009</v>
       </c>
       <c r="D13">
-        <v>1.018276349339149</v>
+        <v>0.9849613635543298</v>
       </c>
       <c r="E13">
-        <v>1.00942777778985</v>
+        <v>1.01253192699672</v>
       </c>
       <c r="F13">
-        <v>0.9901223040686719</v>
+        <v>1.007010834096691</v>
       </c>
       <c r="G13">
-        <v>1.000642851821473</v>
+        <v>1.004923601959151</v>
       </c>
       <c r="H13">
-        <v>1.050096038616672</v>
+        <v>0.9706582900663677</v>
       </c>
       <c r="I13">
-        <v>1.050096038616672</v>
+        <v>0.9706582900663677</v>
       </c>
       <c r="J13">
-        <v>0.9645573647888191</v>
+        <v>1.012082800529009</v>
       </c>
       <c r="K13">
-        <v>0.9645573647888191</v>
+        <v>1.012082800529009</v>
       </c>
       <c r="L13">
-        <v>1.000642851821473</v>
+        <v>1.004923601959151</v>
       </c>
       <c r="M13">
-        <v>1.025369445219072</v>
+        <v>0.9877909460127592</v>
       </c>
       <c r="N13">
-        <v>1.025369445219072</v>
+        <v>0.9877909460127592</v>
       </c>
       <c r="O13">
-        <v>1.023005079925764</v>
+        <v>0.9868477518599494</v>
       </c>
       <c r="P13">
-        <v>1.005098751742321</v>
+        <v>0.995888230851509</v>
       </c>
       <c r="Q13">
-        <v>1.005098751742321</v>
+        <v>0.995888230851509</v>
       </c>
       <c r="R13">
-        <v>0.9949634050039458</v>
+        <v>0.999936873270884</v>
       </c>
       <c r="S13">
-        <v>0.9949634050039458</v>
+        <v>0.999936873270884</v>
       </c>
       <c r="T13">
-        <v>1.005520447737439</v>
+        <v>0.9986948028670447</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.035987231812905</v>
+        <v>1.02008904898327</v>
       </c>
       <c r="D14">
-        <v>1.065926112515618</v>
+        <v>0.9761372412801425</v>
       </c>
       <c r="E14">
-        <v>0.8413008552341321</v>
+        <v>1.018636712676604</v>
       </c>
       <c r="F14">
-        <v>0.9742366007178362</v>
+        <v>1.011221291527255</v>
       </c>
       <c r="G14">
-        <v>0.948824807966586</v>
+        <v>1.007572014762725</v>
       </c>
       <c r="H14">
-        <v>1.076880447286525</v>
+        <v>0.9525384901659601</v>
       </c>
       <c r="I14">
-        <v>1.076880447286525</v>
+        <v>0.9525384901659601</v>
       </c>
       <c r="J14">
-        <v>1.035987231812905</v>
+        <v>1.02008904898327</v>
       </c>
       <c r="K14">
-        <v>1.035987231812905</v>
+        <v>1.02008904898327</v>
       </c>
       <c r="L14">
-        <v>0.948824807966586</v>
+        <v>1.007572014762725</v>
       </c>
       <c r="M14">
-        <v>1.012852627626555</v>
+        <v>0.9800552524643424</v>
       </c>
       <c r="N14">
-        <v>1.012852627626555</v>
+        <v>0.9800552524643424</v>
       </c>
       <c r="O14">
-        <v>1.030543789256243</v>
+        <v>0.9787492487362758</v>
       </c>
       <c r="P14">
-        <v>1.020564162355339</v>
+        <v>0.9933998513039848</v>
       </c>
       <c r="Q14">
-        <v>1.020564162355339</v>
+        <v>0.9933998513039848</v>
       </c>
       <c r="R14">
-        <v>1.02441992971973</v>
+        <v>1.000072150723806</v>
       </c>
       <c r="S14">
-        <v>1.02441992971973</v>
+        <v>1.000072150723806</v>
       </c>
       <c r="T14">
-        <v>0.9905260092556002</v>
+        <v>0.9976991332326594</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9652915770361605</v>
+        <v>1.007416806520791</v>
       </c>
       <c r="D15">
-        <v>1.017857111946835</v>
+        <v>0.991430912204182</v>
       </c>
       <c r="E15">
-        <v>1.011927935158048</v>
+        <v>1.006454726615503</v>
       </c>
       <c r="F15">
-        <v>0.9896429273507429</v>
+        <v>1.004039379225537</v>
       </c>
       <c r="G15">
-        <v>0.9996640585699197</v>
+        <v>1.002649491435466</v>
       </c>
       <c r="H15">
-        <v>1.055007825826831</v>
+        <v>0.9828667731092312</v>
       </c>
       <c r="I15">
-        <v>1.055007825826831</v>
+        <v>0.9828667731092312</v>
       </c>
       <c r="J15">
-        <v>0.9652915770361605</v>
+        <v>1.007416806520791</v>
       </c>
       <c r="K15">
-        <v>0.9652915770361605</v>
+        <v>1.007416806520791</v>
       </c>
       <c r="L15">
-        <v>0.9996640585699197</v>
+        <v>1.002649491435466</v>
       </c>
       <c r="M15">
-        <v>1.027335942198375</v>
+        <v>0.9927581322723484</v>
       </c>
       <c r="N15">
-        <v>1.027335942198375</v>
+        <v>0.9927581322723484</v>
       </c>
       <c r="O15">
-        <v>1.024176332114529</v>
+        <v>0.9923157255829596</v>
       </c>
       <c r="P15">
-        <v>1.006654487144304</v>
+        <v>0.9976443570218295</v>
       </c>
       <c r="Q15">
-        <v>1.006654487144304</v>
+        <v>0.9976443570218293</v>
       </c>
       <c r="R15">
-        <v>0.996313759617268</v>
+        <v>1.00008746939657</v>
       </c>
       <c r="S15">
-        <v>0.996313759617268</v>
+        <v>1.00008746939657</v>
       </c>
       <c r="T15">
-        <v>1.006565239314756</v>
+        <v>0.9991430148517849</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.136606370124015</v>
+        <v>1.014134673881566</v>
       </c>
       <c r="D16">
-        <v>0.8332673423357858</v>
+        <v>0.9834711376313343</v>
       </c>
       <c r="E16">
-        <v>1.134170668311376</v>
+        <v>1.012612920375124</v>
       </c>
       <c r="F16">
-        <v>1.078307979297127</v>
+        <v>1.007792802506031</v>
       </c>
       <c r="G16">
-        <v>1.054316870575601</v>
+        <v>1.005182977435622</v>
       </c>
       <c r="H16">
-        <v>0.6696139044116777</v>
+        <v>0.9669519565561844</v>
       </c>
       <c r="I16">
-        <v>0.6696139044116777</v>
+        <v>0.9669519565561844</v>
       </c>
       <c r="J16">
-        <v>1.136606370124015</v>
+        <v>1.014134673881566</v>
       </c>
       <c r="K16">
-        <v>1.136606370124015</v>
+        <v>1.014134673881566</v>
       </c>
       <c r="L16">
-        <v>1.054316870575601</v>
+        <v>1.005182977435622</v>
       </c>
       <c r="M16">
-        <v>0.8619653874936393</v>
+        <v>0.9860674669959031</v>
       </c>
       <c r="N16">
-        <v>0.8619653874936393</v>
+        <v>0.9860674669959031</v>
       </c>
       <c r="O16">
-        <v>0.8523993724410214</v>
+        <v>0.9852020238743803</v>
       </c>
       <c r="P16">
-        <v>0.9535123817037645</v>
+        <v>0.9954232026244574</v>
       </c>
       <c r="Q16">
-        <v>0.9535123817037645</v>
+        <v>0.9954232026244574</v>
       </c>
       <c r="R16">
-        <v>0.9992858788088272</v>
+        <v>1.000101070438735</v>
       </c>
       <c r="S16">
-        <v>0.9992858788088272</v>
+        <v>1.000101070438735</v>
       </c>
       <c r="T16">
-        <v>0.9843805225092638</v>
+        <v>0.9983577447309768</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.093275464107562</v>
+        <v>1.026842009748538</v>
       </c>
       <c r="D17">
-        <v>0.8642778290960602</v>
+        <v>0.9683249187367245</v>
       </c>
       <c r="E17">
-        <v>1.130068041821409</v>
+        <v>1.024520278199223</v>
       </c>
       <c r="F17">
-        <v>1.062794414178168</v>
+        <v>1.014903839837005</v>
       </c>
       <c r="G17">
-        <v>1.0502507703304</v>
+        <v>1.009991005791239</v>
       </c>
       <c r="H17">
-        <v>0.7407206964434987</v>
+        <v>0.9369427190360959</v>
       </c>
       <c r="I17">
-        <v>0.7407206964434987</v>
+        <v>0.9369427190360959</v>
       </c>
       <c r="J17">
-        <v>1.093275464107562</v>
+        <v>1.026842009748538</v>
       </c>
       <c r="K17">
-        <v>1.093275464107562</v>
+        <v>1.026842009748538</v>
       </c>
       <c r="L17">
-        <v>1.0502507703304</v>
+        <v>1.009991005791239</v>
       </c>
       <c r="M17">
-        <v>0.8954857333869493</v>
+        <v>0.9734668624136675</v>
       </c>
       <c r="N17">
-        <v>0.8954857333869493</v>
+        <v>0.9734668624136675</v>
       </c>
       <c r="O17">
-        <v>0.8850830986233196</v>
+        <v>0.9717528811880198</v>
       </c>
       <c r="P17">
-        <v>0.9614156436271535</v>
+        <v>0.9912585781919577</v>
       </c>
       <c r="Q17">
-        <v>0.9614156436271535</v>
+        <v>0.9912585781919577</v>
       </c>
       <c r="R17">
-        <v>0.9943805987472556</v>
+        <v>1.000154436081103</v>
       </c>
       <c r="S17">
-        <v>0.9943805987472556</v>
+        <v>1.000154436081103</v>
       </c>
       <c r="T17">
-        <v>0.9902312026628496</v>
+        <v>0.9969207952248041</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.006963329455335</v>
+        <v>1.039199149679358</v>
       </c>
       <c r="D18">
-        <v>0.9266025839728657</v>
+        <v>0.9535094788986467</v>
       </c>
       <c r="E18">
-        <v>1.120893228552977</v>
+        <v>1.036142462485546</v>
       </c>
       <c r="F18">
-        <v>1.031662359869368</v>
+        <v>1.021862185085587</v>
       </c>
       <c r="G18">
-        <v>1.041826568094793</v>
+        <v>1.014727632610789</v>
       </c>
       <c r="H18">
-        <v>0.883175555302447</v>
+        <v>0.9077662942533322</v>
       </c>
       <c r="I18">
-        <v>0.883175555302447</v>
+        <v>0.9077662942533322</v>
       </c>
       <c r="J18">
-        <v>1.006963329455335</v>
+        <v>1.039199149679358</v>
       </c>
       <c r="K18">
-        <v>1.006963329455335</v>
+        <v>1.039199149679358</v>
       </c>
       <c r="L18">
-        <v>1.041826568094793</v>
+        <v>1.014727632610789</v>
       </c>
       <c r="M18">
-        <v>0.9625010616986198</v>
+        <v>0.9612469634320605</v>
       </c>
       <c r="N18">
-        <v>0.9625010616986198</v>
+        <v>0.9612469634320605</v>
       </c>
       <c r="O18">
-        <v>0.9505349024567017</v>
+        <v>0.9586678019209226</v>
       </c>
       <c r="P18">
-        <v>0.9773218176175247</v>
+        <v>0.9872310255144932</v>
       </c>
       <c r="Q18">
-        <v>0.9773218176175247</v>
+        <v>0.9872310255144932</v>
       </c>
       <c r="R18">
-        <v>0.9847321955769772</v>
+        <v>1.00022305655571</v>
       </c>
       <c r="S18">
-        <v>0.9847321955769772</v>
+        <v>1.00022305655571</v>
       </c>
       <c r="T18">
-        <v>1.001853937541297</v>
+        <v>0.9955345338355431</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9994065467765426</v>
+        <v>0.9999781619008442</v>
       </c>
       <c r="D19">
-        <v>0.9200807547264314</v>
+        <v>0.999410753563401</v>
       </c>
       <c r="E19">
-        <v>1.142141344786158</v>
+        <v>1.001065387726505</v>
       </c>
       <c r="F19">
-        <v>1.033793120963087</v>
+        <v>1.000249218224188</v>
       </c>
       <c r="G19">
-        <v>1.047943965135553</v>
+        <v>1.000360764767002</v>
       </c>
       <c r="H19">
-        <v>0.8792042961449239</v>
+        <v>0.999108625527915</v>
       </c>
       <c r="I19">
-        <v>0.8792042961449239</v>
+        <v>0.999108625527915</v>
       </c>
       <c r="J19">
-        <v>0.9994065467765426</v>
+        <v>0.9999781619008442</v>
       </c>
       <c r="K19">
-        <v>0.9994065467765426</v>
+        <v>0.9999781619008442</v>
       </c>
       <c r="L19">
-        <v>1.047943965135553</v>
+        <v>1.000360764767002</v>
       </c>
       <c r="M19">
-        <v>0.9635741306402386</v>
+        <v>0.9997346951474584</v>
       </c>
       <c r="N19">
-        <v>0.9635741306402386</v>
+        <v>0.9997346951474584</v>
       </c>
       <c r="O19">
-        <v>0.9490763386689695</v>
+        <v>0.9996267146194393</v>
       </c>
       <c r="P19">
-        <v>0.97551826935234</v>
+        <v>0.9998158507319204</v>
       </c>
       <c r="Q19">
-        <v>0.97551826935234</v>
+        <v>0.9998158507319204</v>
       </c>
       <c r="R19">
-        <v>0.9814903387083906</v>
+        <v>0.9998564285241514</v>
       </c>
       <c r="S19">
-        <v>0.9814903387083906</v>
+        <v>0.9998564285241514</v>
       </c>
       <c r="T19">
-        <v>1.003761671422116</v>
+        <v>1.000028818618309</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000444110696499</v>
+        <v>0.9999526229478881</v>
       </c>
       <c r="D20">
-        <v>0.9999445733183495</v>
+        <v>0.9984979269564394</v>
       </c>
       <c r="E20">
-        <v>0.9997000822081422</v>
+        <v>1.002696143912568</v>
       </c>
       <c r="F20">
-        <v>1.000021408762528</v>
+        <v>1.000637805822004</v>
       </c>
       <c r="G20">
-        <v>0.9998474579540093</v>
+        <v>1.000919774171654</v>
       </c>
       <c r="H20">
-        <v>0.9998438145537676</v>
+        <v>0.9977106898975966</v>
       </c>
       <c r="I20">
-        <v>0.9998438145537676</v>
+        <v>0.9977106898975966</v>
       </c>
       <c r="J20">
-        <v>1.000444110696499</v>
+        <v>0.9999526229478881</v>
       </c>
       <c r="K20">
-        <v>1.000444110696499</v>
+        <v>0.9999526229478881</v>
       </c>
       <c r="L20">
-        <v>0.9998474579540093</v>
+        <v>1.000919774171654</v>
       </c>
       <c r="M20">
-        <v>0.9998456362538884</v>
+        <v>0.9993152320346255</v>
       </c>
       <c r="N20">
-        <v>0.9998456362538884</v>
+        <v>0.9993152320346255</v>
       </c>
       <c r="O20">
-        <v>0.9998786152753755</v>
+        <v>0.9990427970085634</v>
       </c>
       <c r="P20">
-        <v>1.000045127734759</v>
+        <v>0.9995276956723798</v>
       </c>
       <c r="Q20">
-        <v>1.000045127734759</v>
+        <v>0.9995276956723798</v>
       </c>
       <c r="R20">
-        <v>1.000144873475194</v>
+        <v>0.9996339274912569</v>
       </c>
       <c r="S20">
-        <v>1.000144873475194</v>
+        <v>0.9996339274912569</v>
       </c>
       <c r="T20">
-        <v>0.9999669079155492</v>
+        <v>1.000069160618025</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9991815967586943</v>
+        <v>0.9999649963790531</v>
       </c>
       <c r="D21">
-        <v>0.99931143537058</v>
+        <v>0.9978953533951669</v>
       </c>
       <c r="E21">
-        <v>1.002033769140755</v>
+        <v>1.003724799834581</v>
       </c>
       <c r="F21">
-        <v>1.000277653754377</v>
+        <v>1.0008984834461</v>
       </c>
       <c r="G21">
-        <v>1.000728706520544</v>
+        <v>1.001282635235409</v>
       </c>
       <c r="H21">
-        <v>0.9992038155274823</v>
+        <v>0.996758842187877</v>
       </c>
       <c r="I21">
-        <v>0.9992038155274823</v>
+        <v>0.996758842187877</v>
       </c>
       <c r="J21">
-        <v>0.9991815967586943</v>
+        <v>0.9999649963790531</v>
       </c>
       <c r="K21">
-        <v>0.9991815967586943</v>
+        <v>0.9999649963790531</v>
       </c>
       <c r="L21">
-        <v>1.000728706520544</v>
+        <v>1.001282635235409</v>
       </c>
       <c r="M21">
-        <v>0.9999662610240133</v>
+        <v>0.9990207387116429</v>
       </c>
       <c r="N21">
-        <v>0.9999662610240133</v>
+        <v>0.9990207387116429</v>
       </c>
       <c r="O21">
-        <v>0.9997479858062022</v>
+        <v>0.9986456102728175</v>
       </c>
       <c r="P21">
-        <v>0.999704706268907</v>
+        <v>0.9993354912674463</v>
       </c>
       <c r="Q21">
-        <v>0.999704706268907</v>
+        <v>0.9993354912674463</v>
       </c>
       <c r="R21">
-        <v>0.9995739288913539</v>
+        <v>0.9994928675453481</v>
       </c>
       <c r="S21">
-        <v>0.9995739288913539</v>
+        <v>0.9994928675453481</v>
       </c>
       <c r="T21">
-        <v>1.000122829512072</v>
+        <v>1.000087518413031</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.004092283779646</v>
+        <v>0.9999236825514229</v>
       </c>
       <c r="D22">
-        <v>0.9972864496660786</v>
+        <v>0.9954629817593231</v>
       </c>
       <c r="E22">
-        <v>1.000326193131842</v>
+        <v>1.008044308874444</v>
       </c>
       <c r="F22">
-        <v>1.001306817296177</v>
+        <v>1.001934557447697</v>
       </c>
       <c r="G22">
-        <v>1.000160533541865</v>
+        <v>1.002762080128579</v>
       </c>
       <c r="H22">
-        <v>0.9940334462267661</v>
+        <v>0.9930211386196439</v>
       </c>
       <c r="I22">
-        <v>0.9940334462267661</v>
+        <v>0.9930211386196439</v>
       </c>
       <c r="J22">
-        <v>1.004092283779646</v>
+        <v>0.9999236825514229</v>
       </c>
       <c r="K22">
-        <v>1.004092283779646</v>
+        <v>0.9999236825514229</v>
       </c>
       <c r="L22">
-        <v>1.000160533541865</v>
+        <v>1.002762080128579</v>
       </c>
       <c r="M22">
-        <v>0.9970969898843154</v>
+        <v>0.9978916093741117</v>
       </c>
       <c r="N22">
-        <v>0.9970969898843154</v>
+        <v>0.9978916093741117</v>
       </c>
       <c r="O22">
-        <v>0.9971601431449031</v>
+        <v>0.9970820668358488</v>
       </c>
       <c r="P22">
-        <v>0.9994287545160923</v>
+        <v>0.9985689670998821</v>
       </c>
       <c r="Q22">
-        <v>0.9994287545160923</v>
+        <v>0.9985689670998821</v>
       </c>
       <c r="R22">
-        <v>1.000594636831981</v>
+        <v>0.9989076459627673</v>
       </c>
       <c r="S22">
-        <v>1.000594636831981</v>
+        <v>0.9989076459627673</v>
       </c>
       <c r="T22">
-        <v>0.9995342872737291</v>
+        <v>1.000191458230185</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9999327247296158</v>
+      </c>
+      <c r="D23">
+        <v>0.9924720580708652</v>
+      </c>
+      <c r="E23">
+        <v>1.013227235868085</v>
+      </c>
+      <c r="F23">
+        <v>1.003223339131017</v>
+      </c>
+      <c r="G23">
+        <v>1.004577501320205</v>
+      </c>
+      <c r="H23">
+        <v>0.9883281242694535</v>
+      </c>
+      <c r="I23">
+        <v>0.9883281242694535</v>
+      </c>
+      <c r="J23">
+        <v>0.9999327247296158</v>
+      </c>
+      <c r="K23">
+        <v>0.9999327247296158</v>
+      </c>
+      <c r="L23">
+        <v>1.004577501320205</v>
+      </c>
+      <c r="M23">
+        <v>0.996452812794829</v>
+      </c>
+      <c r="N23">
+        <v>0.996452812794829</v>
+      </c>
+      <c r="O23">
+        <v>0.9951258945535079</v>
+      </c>
+      <c r="P23">
+        <v>0.997612783439758</v>
+      </c>
+      <c r="Q23">
+        <v>0.997612783439758</v>
+      </c>
+      <c r="R23">
+        <v>0.9981927687622224</v>
+      </c>
+      <c r="S23">
+        <v>0.9981927687622224</v>
+      </c>
+      <c r="T23">
+        <v>1.00029349723154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.034299235804317</v>
+      </c>
+      <c r="D24">
+        <v>1.065715635334983</v>
+      </c>
+      <c r="E24">
+        <v>0.8459595168994624</v>
+      </c>
+      <c r="F24">
+        <v>0.9736475715613275</v>
+      </c>
+      <c r="G24">
+        <v>0.9486880292113041</v>
+      </c>
+      <c r="H24">
+        <v>1.082247054752975</v>
+      </c>
+      <c r="I24">
+        <v>1.082247054752975</v>
+      </c>
+      <c r="J24">
+        <v>1.034299235804317</v>
+      </c>
+      <c r="K24">
+        <v>1.034299235804317</v>
+      </c>
+      <c r="L24">
+        <v>0.9486880292113041</v>
+      </c>
+      <c r="M24">
+        <v>1.01546754198214</v>
+      </c>
+      <c r="N24">
+        <v>1.01546754198214</v>
+      </c>
+      <c r="O24">
+        <v>1.032216906433087</v>
+      </c>
+      <c r="P24">
+        <v>1.021744773256199</v>
+      </c>
+      <c r="Q24">
+        <v>1.021744773256199</v>
+      </c>
+      <c r="R24">
+        <v>1.024883388893228</v>
+      </c>
+      <c r="S24">
+        <v>1.024883388893228</v>
+      </c>
+      <c r="T24">
+        <v>0.9917595072607283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9645573647888191</v>
+      </c>
+      <c r="D25">
+        <v>1.018276349339149</v>
+      </c>
+      <c r="E25">
+        <v>1.00942777778985</v>
+      </c>
+      <c r="F25">
+        <v>0.9901223040686719</v>
+      </c>
+      <c r="G25">
+        <v>1.000642851821473</v>
+      </c>
+      <c r="H25">
+        <v>1.050096038616672</v>
+      </c>
+      <c r="I25">
+        <v>1.050096038616672</v>
+      </c>
+      <c r="J25">
+        <v>0.9645573647888191</v>
+      </c>
+      <c r="K25">
+        <v>0.9645573647888191</v>
+      </c>
+      <c r="L25">
+        <v>1.000642851821473</v>
+      </c>
+      <c r="M25">
+        <v>1.025369445219072</v>
+      </c>
+      <c r="N25">
+        <v>1.025369445219072</v>
+      </c>
+      <c r="O25">
+        <v>1.023005079925764</v>
+      </c>
+      <c r="P25">
+        <v>1.005098751742321</v>
+      </c>
+      <c r="Q25">
+        <v>1.005098751742321</v>
+      </c>
+      <c r="R25">
+        <v>0.9949634050039458</v>
+      </c>
+      <c r="S25">
+        <v>0.9949634050039458</v>
+      </c>
+      <c r="T25">
+        <v>1.005520447737439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.035987231812905</v>
+      </c>
+      <c r="D26">
+        <v>1.065926112515618</v>
+      </c>
+      <c r="E26">
+        <v>0.8413008552341321</v>
+      </c>
+      <c r="F26">
+        <v>0.9742366007178362</v>
+      </c>
+      <c r="G26">
+        <v>0.948824807966586</v>
+      </c>
+      <c r="H26">
+        <v>1.076880447286525</v>
+      </c>
+      <c r="I26">
+        <v>1.076880447286525</v>
+      </c>
+      <c r="J26">
+        <v>1.035987231812905</v>
+      </c>
+      <c r="K26">
+        <v>1.035987231812905</v>
+      </c>
+      <c r="L26">
+        <v>0.948824807966586</v>
+      </c>
+      <c r="M26">
+        <v>1.012852627626555</v>
+      </c>
+      <c r="N26">
+        <v>1.012852627626555</v>
+      </c>
+      <c r="O26">
+        <v>1.030543789256243</v>
+      </c>
+      <c r="P26">
+        <v>1.020564162355339</v>
+      </c>
+      <c r="Q26">
+        <v>1.020564162355339</v>
+      </c>
+      <c r="R26">
+        <v>1.02441992971973</v>
+      </c>
+      <c r="S26">
+        <v>1.02441992971973</v>
+      </c>
+      <c r="T26">
+        <v>0.9905260092556002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9652915770361605</v>
+      </c>
+      <c r="D27">
+        <v>1.017857111946835</v>
+      </c>
+      <c r="E27">
+        <v>1.011927935158048</v>
+      </c>
+      <c r="F27">
+        <v>0.9896429273507429</v>
+      </c>
+      <c r="G27">
+        <v>0.9996640585699197</v>
+      </c>
+      <c r="H27">
+        <v>1.055007825826831</v>
+      </c>
+      <c r="I27">
+        <v>1.055007825826831</v>
+      </c>
+      <c r="J27">
+        <v>0.9652915770361605</v>
+      </c>
+      <c r="K27">
+        <v>0.9652915770361605</v>
+      </c>
+      <c r="L27">
+        <v>0.9996640585699197</v>
+      </c>
+      <c r="M27">
+        <v>1.027335942198375</v>
+      </c>
+      <c r="N27">
+        <v>1.027335942198375</v>
+      </c>
+      <c r="O27">
+        <v>1.024176332114529</v>
+      </c>
+      <c r="P27">
+        <v>1.006654487144304</v>
+      </c>
+      <c r="Q27">
+        <v>1.006654487144304</v>
+      </c>
+      <c r="R27">
+        <v>0.996313759617268</v>
+      </c>
+      <c r="S27">
+        <v>0.996313759617268</v>
+      </c>
+      <c r="T27">
+        <v>1.006565239314756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.136606370124015</v>
+      </c>
+      <c r="D28">
+        <v>0.8332673423357858</v>
+      </c>
+      <c r="E28">
+        <v>1.134170668311376</v>
+      </c>
+      <c r="F28">
+        <v>1.078307979297127</v>
+      </c>
+      <c r="G28">
+        <v>1.054316870575601</v>
+      </c>
+      <c r="H28">
+        <v>0.6696139044116777</v>
+      </c>
+      <c r="I28">
+        <v>0.6696139044116777</v>
+      </c>
+      <c r="J28">
+        <v>1.136606370124015</v>
+      </c>
+      <c r="K28">
+        <v>1.136606370124015</v>
+      </c>
+      <c r="L28">
+        <v>1.054316870575601</v>
+      </c>
+      <c r="M28">
+        <v>0.8619653874936393</v>
+      </c>
+      <c r="N28">
+        <v>0.8619653874936393</v>
+      </c>
+      <c r="O28">
+        <v>0.8523993724410214</v>
+      </c>
+      <c r="P28">
+        <v>0.9535123817037645</v>
+      </c>
+      <c r="Q28">
+        <v>0.9535123817037645</v>
+      </c>
+      <c r="R28">
+        <v>0.9992858788088272</v>
+      </c>
+      <c r="S28">
+        <v>0.9992858788088272</v>
+      </c>
+      <c r="T28">
+        <v>0.9843805225092638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.093275464107562</v>
+      </c>
+      <c r="D29">
+        <v>0.8642778290960602</v>
+      </c>
+      <c r="E29">
+        <v>1.130068041821409</v>
+      </c>
+      <c r="F29">
+        <v>1.062794414178168</v>
+      </c>
+      <c r="G29">
+        <v>1.0502507703304</v>
+      </c>
+      <c r="H29">
+        <v>0.7407206964434987</v>
+      </c>
+      <c r="I29">
+        <v>0.7407206964434987</v>
+      </c>
+      <c r="J29">
+        <v>1.093275464107562</v>
+      </c>
+      <c r="K29">
+        <v>1.093275464107562</v>
+      </c>
+      <c r="L29">
+        <v>1.0502507703304</v>
+      </c>
+      <c r="M29">
+        <v>0.8954857333869493</v>
+      </c>
+      <c r="N29">
+        <v>0.8954857333869493</v>
+      </c>
+      <c r="O29">
+        <v>0.8850830986233196</v>
+      </c>
+      <c r="P29">
+        <v>0.9614156436271535</v>
+      </c>
+      <c r="Q29">
+        <v>0.9614156436271535</v>
+      </c>
+      <c r="R29">
+        <v>0.9943805987472556</v>
+      </c>
+      <c r="S29">
+        <v>0.9943805987472556</v>
+      </c>
+      <c r="T29">
+        <v>0.9902312026628496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.006963329455335</v>
+      </c>
+      <c r="D30">
+        <v>0.9266025839728657</v>
+      </c>
+      <c r="E30">
+        <v>1.120893228552977</v>
+      </c>
+      <c r="F30">
+        <v>1.031662359869368</v>
+      </c>
+      <c r="G30">
+        <v>1.041826568094793</v>
+      </c>
+      <c r="H30">
+        <v>0.883175555302447</v>
+      </c>
+      <c r="I30">
+        <v>0.883175555302447</v>
+      </c>
+      <c r="J30">
+        <v>1.006963329455335</v>
+      </c>
+      <c r="K30">
+        <v>1.006963329455335</v>
+      </c>
+      <c r="L30">
+        <v>1.041826568094793</v>
+      </c>
+      <c r="M30">
+        <v>0.9625010616986198</v>
+      </c>
+      <c r="N30">
+        <v>0.9625010616986198</v>
+      </c>
+      <c r="O30">
+        <v>0.9505349024567017</v>
+      </c>
+      <c r="P30">
+        <v>0.9773218176175247</v>
+      </c>
+      <c r="Q30">
+        <v>0.9773218176175247</v>
+      </c>
+      <c r="R30">
+        <v>0.9847321955769772</v>
+      </c>
+      <c r="S30">
+        <v>0.9847321955769772</v>
+      </c>
+      <c r="T30">
+        <v>1.001853937541297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9994065467765426</v>
+      </c>
+      <c r="D31">
+        <v>0.9200807547264314</v>
+      </c>
+      <c r="E31">
+        <v>1.142141344786158</v>
+      </c>
+      <c r="F31">
+        <v>1.033793120963087</v>
+      </c>
+      <c r="G31">
+        <v>1.047943965135553</v>
+      </c>
+      <c r="H31">
+        <v>0.8792042961449239</v>
+      </c>
+      <c r="I31">
+        <v>0.8792042961449239</v>
+      </c>
+      <c r="J31">
+        <v>0.9994065467765426</v>
+      </c>
+      <c r="K31">
+        <v>0.9994065467765426</v>
+      </c>
+      <c r="L31">
+        <v>1.047943965135553</v>
+      </c>
+      <c r="M31">
+        <v>0.9635741306402386</v>
+      </c>
+      <c r="N31">
+        <v>0.9635741306402386</v>
+      </c>
+      <c r="O31">
+        <v>0.9490763386689695</v>
+      </c>
+      <c r="P31">
+        <v>0.97551826935234</v>
+      </c>
+      <c r="Q31">
+        <v>0.97551826935234</v>
+      </c>
+      <c r="R31">
+        <v>0.9814903387083906</v>
+      </c>
+      <c r="S31">
+        <v>0.9814903387083906</v>
+      </c>
+      <c r="T31">
+        <v>1.003761671422116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.177298675205479</v>
+      </c>
+      <c r="D32">
+        <v>0.8021192230136984</v>
+      </c>
+      <c r="E32">
+        <v>1.141209379178082</v>
+      </c>
+      <c r="F32">
+        <v>1.09382152739726</v>
+      </c>
+      <c r="G32">
+        <v>1.059468789863014</v>
+      </c>
+      <c r="H32">
+        <v>0.5991860223287672</v>
+      </c>
+      <c r="I32">
+        <v>0.5991860223287672</v>
+      </c>
+      <c r="J32">
+        <v>1.177298675205479</v>
+      </c>
+      <c r="K32">
+        <v>1.177298675205479</v>
+      </c>
+      <c r="L32">
+        <v>1.059468789863014</v>
+      </c>
+      <c r="M32">
+        <v>0.8293274060958904</v>
+      </c>
+      <c r="N32">
+        <v>0.8293274060958904</v>
+      </c>
+      <c r="O32">
+        <v>0.8202580117351598</v>
+      </c>
+      <c r="P32">
+        <v>0.9453178291324201</v>
+      </c>
+      <c r="Q32">
+        <v>0.9453178291324199</v>
+      </c>
+      <c r="R32">
+        <v>1.003313040650685</v>
+      </c>
+      <c r="S32">
+        <v>1.003313040650685</v>
+      </c>
+      <c r="T32">
+        <v>0.9788506028310501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.060644875789474</v>
+      </c>
+      <c r="D33">
+        <v>0.9122313226315787</v>
+      </c>
+      <c r="E33">
+        <v>1.079401156315789</v>
+      </c>
+      <c r="F33">
+        <v>1.04188314</v>
+      </c>
+      <c r="G33">
+        <v>1.034162258947369</v>
+      </c>
+      <c r="H33">
+        <v>0.8205205531578945</v>
+      </c>
+      <c r="I33">
+        <v>0.8205205531578945</v>
+      </c>
+      <c r="J33">
+        <v>1.060644875789474</v>
+      </c>
+      <c r="K33">
+        <v>1.060644875789474</v>
+      </c>
+      <c r="L33">
+        <v>1.034162258947369</v>
+      </c>
+      <c r="M33">
+        <v>0.9273414060526316</v>
+      </c>
+      <c r="N33">
+        <v>0.9273414060526316</v>
+      </c>
+      <c r="O33">
+        <v>0.9223047115789473</v>
+      </c>
+      <c r="P33">
+        <v>0.9717758959649122</v>
+      </c>
+      <c r="Q33">
+        <v>0.9717758959649122</v>
+      </c>
+      <c r="R33">
+        <v>0.9939931409210525</v>
+      </c>
+      <c r="S33">
+        <v>0.9939931409210525</v>
+      </c>
+      <c r="T33">
+        <v>0.991473884473684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9584451305263157</v>
+      </c>
+      <c r="D34">
+        <v>0.9144070715789473</v>
+      </c>
+      <c r="E34">
+        <v>1.203648202631579</v>
+      </c>
+      <c r="F34">
+        <v>1.032922123157895</v>
+      </c>
+      <c r="G34">
+        <v>1.063571071578947</v>
+      </c>
+      <c r="H34">
+        <v>0.9028521389473685</v>
+      </c>
+      <c r="I34">
+        <v>0.9028521389473685</v>
+      </c>
+      <c r="J34">
+        <v>0.9584451305263157</v>
+      </c>
+      <c r="K34">
+        <v>0.9584451305263157</v>
+      </c>
+      <c r="L34">
+        <v>1.063571071578947</v>
+      </c>
+      <c r="M34">
+        <v>0.9832116052631579</v>
+      </c>
+      <c r="N34">
+        <v>0.9832116052631579</v>
+      </c>
+      <c r="O34">
+        <v>0.9602767607017544</v>
+      </c>
+      <c r="P34">
+        <v>0.9749561136842105</v>
+      </c>
+      <c r="Q34">
+        <v>0.9749561136842105</v>
+      </c>
+      <c r="R34">
+        <v>0.9708283678947368</v>
+      </c>
+      <c r="S34">
+        <v>0.9708283678947368</v>
+      </c>
+      <c r="T34">
+        <v>1.012640956403509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9839825738908773</v>
+      </c>
+      <c r="D35">
+        <v>0.7100076925596597</v>
+      </c>
+      <c r="E35">
+        <v>1.533300751186182</v>
+      </c>
+      <c r="F35">
+        <v>1.121762140148446</v>
+      </c>
+      <c r="G35">
+        <v>1.178461508073961</v>
+      </c>
+      <c r="H35">
+        <v>0.5680991623450676</v>
+      </c>
+      <c r="I35">
+        <v>0.5680991623450676</v>
+      </c>
+      <c r="J35">
+        <v>0.9839825738908773</v>
+      </c>
+      <c r="K35">
+        <v>0.9839825738908773</v>
+      </c>
+      <c r="L35">
+        <v>1.178461508073961</v>
+      </c>
+      <c r="M35">
+        <v>0.8732803352095144</v>
+      </c>
+      <c r="N35">
+        <v>0.8732803352095144</v>
+      </c>
+      <c r="O35">
+        <v>0.8188561209928963</v>
+      </c>
+      <c r="P35">
+        <v>0.9101810814366353</v>
+      </c>
+      <c r="Q35">
+        <v>0.9101810814366353</v>
+      </c>
+      <c r="R35">
+        <v>0.9286314545501958</v>
+      </c>
+      <c r="S35">
+        <v>0.9286314545501958</v>
+      </c>
+      <c r="T35">
+        <v>1.015935638034032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000444110696499</v>
+      </c>
+      <c r="D36">
+        <v>0.9999445733183495</v>
+      </c>
+      <c r="E36">
+        <v>0.9997000822081422</v>
+      </c>
+      <c r="F36">
+        <v>1.000021408762528</v>
+      </c>
+      <c r="G36">
+        <v>0.9998474579540093</v>
+      </c>
+      <c r="H36">
+        <v>0.9998438145537676</v>
+      </c>
+      <c r="I36">
+        <v>0.9998438145537676</v>
+      </c>
+      <c r="J36">
+        <v>1.000444110696499</v>
+      </c>
+      <c r="K36">
+        <v>1.000444110696499</v>
+      </c>
+      <c r="L36">
+        <v>0.9998474579540093</v>
+      </c>
+      <c r="M36">
+        <v>0.9998456362538884</v>
+      </c>
+      <c r="N36">
+        <v>0.9998456362538884</v>
+      </c>
+      <c r="O36">
+        <v>0.9998786152753755</v>
+      </c>
+      <c r="P36">
+        <v>1.000045127734759</v>
+      </c>
+      <c r="Q36">
+        <v>1.000045127734759</v>
+      </c>
+      <c r="R36">
+        <v>1.000144873475194</v>
+      </c>
+      <c r="S36">
+        <v>1.000144873475194</v>
+      </c>
+      <c r="T36">
+        <v>0.9999669079155492</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9991815967586943</v>
+      </c>
+      <c r="D37">
+        <v>0.99931143537058</v>
+      </c>
+      <c r="E37">
+        <v>1.002033769140755</v>
+      </c>
+      <c r="F37">
+        <v>1.000277653754377</v>
+      </c>
+      <c r="G37">
+        <v>1.000728706520544</v>
+      </c>
+      <c r="H37">
+        <v>0.9992038155274823</v>
+      </c>
+      <c r="I37">
+        <v>0.9992038155274823</v>
+      </c>
+      <c r="J37">
+        <v>0.9991815967586943</v>
+      </c>
+      <c r="K37">
+        <v>0.9991815967586943</v>
+      </c>
+      <c r="L37">
+        <v>1.000728706520544</v>
+      </c>
+      <c r="M37">
+        <v>0.9999662610240133</v>
+      </c>
+      <c r="N37">
+        <v>0.9999662610240133</v>
+      </c>
+      <c r="O37">
+        <v>0.9997479858062022</v>
+      </c>
+      <c r="P37">
+        <v>0.999704706268907</v>
+      </c>
+      <c r="Q37">
+        <v>0.999704706268907</v>
+      </c>
+      <c r="R37">
+        <v>0.9995739288913539</v>
+      </c>
+      <c r="S37">
+        <v>0.9995739288913539</v>
+      </c>
+      <c r="T37">
+        <v>1.000122829512072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.004092283779646</v>
+      </c>
+      <c r="D38">
+        <v>0.9972864496660786</v>
+      </c>
+      <c r="E38">
+        <v>1.000326193131842</v>
+      </c>
+      <c r="F38">
+        <v>1.001306817296177</v>
+      </c>
+      <c r="G38">
+        <v>1.000160533541865</v>
+      </c>
+      <c r="H38">
+        <v>0.9940334462267661</v>
+      </c>
+      <c r="I38">
+        <v>0.9940334462267661</v>
+      </c>
+      <c r="J38">
+        <v>1.004092283779646</v>
+      </c>
+      <c r="K38">
+        <v>1.004092283779646</v>
+      </c>
+      <c r="L38">
+        <v>1.000160533541865</v>
+      </c>
+      <c r="M38">
+        <v>0.9970969898843154</v>
+      </c>
+      <c r="N38">
+        <v>0.9970969898843154</v>
+      </c>
+      <c r="O38">
+        <v>0.9971601431449031</v>
+      </c>
+      <c r="P38">
+        <v>0.9994287545160923</v>
+      </c>
+      <c r="Q38">
+        <v>0.9994287545160923</v>
+      </c>
+      <c r="R38">
+        <v>1.000594636831981</v>
+      </c>
+      <c r="S38">
+        <v>1.000594636831981</v>
+      </c>
+      <c r="T38">
+        <v>0.9995342872737291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.014320836416371</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9934298660006664</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9962699872529285</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.003261579577479</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9987104479241441</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9841079466769528</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9841079466769528</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.014320836416371</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.014320836416371</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9987104479241441</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9914091973005484</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9914091973005484</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9920827535339211</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999046410339156</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.999046410339156</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.00286501685846</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.00286501685846</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9983501106414235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.036954644247129</v>
+      </c>
+      <c r="D40">
+        <v>0.9713806539614657</v>
+      </c>
+      <c r="E40">
+        <v>1.008752713212554</v>
+      </c>
+      <c r="F40">
+        <v>1.013876379666414</v>
+      </c>
+      <c r="G40">
+        <v>1.004379151895076</v>
+      </c>
+      <c r="H40">
+        <v>0.9375382428229071</v>
+      </c>
+      <c r="I40">
+        <v>0.9375382428229071</v>
+      </c>
+      <c r="J40">
+        <v>1.036954644247129</v>
+      </c>
+      <c r="K40">
+        <v>1.036954644247129</v>
+      </c>
+      <c r="L40">
+        <v>1.004379151895076</v>
+      </c>
+      <c r="M40">
+        <v>0.9709586973589918</v>
+      </c>
+      <c r="N40">
+        <v>0.9709586973589918</v>
+      </c>
+      <c r="O40">
+        <v>0.9710993495598164</v>
+      </c>
+      <c r="P40">
+        <v>0.992957346321704</v>
+      </c>
+      <c r="Q40">
+        <v>0.992957346321704</v>
+      </c>
+      <c r="R40">
+        <v>1.00395667080306</v>
+      </c>
+      <c r="S40">
+        <v>1.00395667080306</v>
+      </c>
+      <c r="T40">
+        <v>0.9954802976342577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9873298900420666</v>
+      </c>
+      <c r="D41">
+        <v>1.016351097128539</v>
+      </c>
+      <c r="E41">
+        <v>0.9870984902689318</v>
+      </c>
+      <c r="F41">
+        <v>0.9920913156441579</v>
+      </c>
+      <c r="G41">
+        <v>0.9940507527084964</v>
+      </c>
+      <c r="H41">
+        <v>1.034076790409397</v>
+      </c>
+      <c r="I41">
+        <v>1.034076790409397</v>
+      </c>
+      <c r="J41">
+        <v>0.9873298900420666</v>
+      </c>
+      <c r="K41">
+        <v>0.9873298900420666</v>
+      </c>
+      <c r="L41">
+        <v>0.9940507527084964</v>
+      </c>
+      <c r="M41">
+        <v>1.014063771558947</v>
+      </c>
+      <c r="N41">
+        <v>1.014063771558947</v>
+      </c>
+      <c r="O41">
+        <v>1.014826213415478</v>
+      </c>
+      <c r="P41">
+        <v>1.005152477719987</v>
+      </c>
+      <c r="Q41">
+        <v>1.005152477719987</v>
+      </c>
+      <c r="R41">
+        <v>1.000696830800507</v>
+      </c>
+      <c r="S41">
+        <v>1.000696830800507</v>
+      </c>
+      <c r="T41">
+        <v>1.001833056033598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.074791702755902</v>
+      </c>
+      <c r="D42">
+        <v>0.8915097394370946</v>
+      </c>
+      <c r="E42">
+        <v>1.102785922689451</v>
+      </c>
+      <c r="F42">
+        <v>1.050488973652146</v>
+      </c>
+      <c r="G42">
+        <v>1.040487851943082</v>
+      </c>
+      <c r="H42">
+        <v>0.7898909999926281</v>
+      </c>
+      <c r="I42">
+        <v>0.7898909999926281</v>
+      </c>
+      <c r="J42">
+        <v>1.074791702755902</v>
+      </c>
+      <c r="K42">
+        <v>1.074791702755902</v>
+      </c>
+      <c r="L42">
+        <v>1.040487851943082</v>
+      </c>
+      <c r="M42">
+        <v>0.9151894259678552</v>
+      </c>
+      <c r="N42">
+        <v>0.9151894259678552</v>
+      </c>
+      <c r="O42">
+        <v>0.9072961971242682</v>
+      </c>
+      <c r="P42">
+        <v>0.9683901848972041</v>
+      </c>
+      <c r="Q42">
+        <v>0.9683901848972041</v>
+      </c>
+      <c r="R42">
+        <v>0.9949905643618785</v>
+      </c>
+      <c r="S42">
+        <v>0.9949905643618785</v>
+      </c>
+      <c r="T42">
+        <v>0.9916591984117172</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.007416806520792</v>
+        <v>0.9999526229478881</v>
       </c>
       <c r="D3">
-        <v>0.9828667731092312</v>
+        <v>0.9984979269564394</v>
       </c>
       <c r="E3">
-        <v>1.002649491435466</v>
+        <v>1.002696143912568</v>
       </c>
       <c r="F3">
-        <v>1.007416806520792</v>
+        <v>1.000637805822004</v>
       </c>
       <c r="G3">
-        <v>1.006454726615503</v>
+        <v>1.000919774171654</v>
       </c>
       <c r="H3">
-        <v>0.991430912204182</v>
+        <v>0.9977106898975966</v>
       </c>
       <c r="I3">
-        <v>1.004039379225537</v>
+        <v>0.9977106898975966</v>
       </c>
       <c r="J3">
-        <v>0.9828667731092312</v>
+        <v>0.9999526229478881</v>
       </c>
       <c r="K3">
-        <v>1.007416806520792</v>
+        <v>0.9999526229478881</v>
       </c>
       <c r="L3">
-        <v>1.002649491435466</v>
+        <v>1.000919774171654</v>
       </c>
       <c r="M3">
-        <v>0.9927581322723484</v>
+        <v>0.9993152320346255</v>
       </c>
       <c r="N3">
-        <v>0.9927581322723484</v>
+        <v>0.9993152320346255</v>
       </c>
       <c r="O3">
-        <v>0.9923157255829596</v>
+        <v>0.9990427970085634</v>
       </c>
       <c r="P3">
-        <v>0.9976443570218295</v>
+        <v>0.9995276956723798</v>
       </c>
       <c r="Q3">
-        <v>0.9976443570218295</v>
+        <v>0.9995276956723798</v>
       </c>
       <c r="R3">
-        <v>1.00008746939657</v>
+        <v>0.9996339274912569</v>
       </c>
       <c r="S3">
-        <v>1.00008746939657</v>
+        <v>0.9996339274912569</v>
       </c>
       <c r="T3">
-        <v>0.9991430148517849</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>1.000069160618025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.014134673881566</v>
+        <v>1.036954644247129</v>
       </c>
       <c r="D4">
-        <v>0.9669519565561844</v>
+        <v>0.9713806539614657</v>
       </c>
       <c r="E4">
-        <v>1.005182977435622</v>
+        <v>1.008752713212554</v>
       </c>
       <c r="F4">
-        <v>1.014134673881566</v>
+        <v>1.013876379666414</v>
       </c>
       <c r="G4">
-        <v>1.012612920375124</v>
+        <v>1.004379151895076</v>
       </c>
       <c r="H4">
-        <v>0.9834711376313346</v>
+        <v>0.9375382428229071</v>
       </c>
       <c r="I4">
-        <v>1.007792802506031</v>
+        <v>0.9375382428229071</v>
       </c>
       <c r="J4">
-        <v>0.9669519565561844</v>
+        <v>1.036954644247129</v>
       </c>
       <c r="K4">
-        <v>1.014134673881566</v>
+        <v>1.036954644247129</v>
       </c>
       <c r="L4">
-        <v>1.005182977435622</v>
+        <v>1.004379151895076</v>
       </c>
       <c r="M4">
-        <v>0.9860674669959031</v>
+        <v>0.9709586973589918</v>
       </c>
       <c r="N4">
-        <v>0.9860674669959031</v>
+        <v>0.9709586973589918</v>
       </c>
       <c r="O4">
-        <v>0.9852020238743803</v>
+        <v>0.9710993495598164</v>
       </c>
       <c r="P4">
-        <v>0.9954232026244574</v>
+        <v>0.992957346321704</v>
       </c>
       <c r="Q4">
-        <v>0.9954232026244574</v>
+        <v>0.992957346321704</v>
       </c>
       <c r="R4">
-        <v>1.000101070438735</v>
+        <v>1.00395667080306</v>
       </c>
       <c r="S4">
-        <v>1.000101070438735</v>
+        <v>1.00395667080306</v>
       </c>
       <c r="T4">
-        <v>0.9983577447309768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9954802976342577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.026842009748538</v>
+        <v>1.008810256138329</v>
       </c>
       <c r="D5">
-        <v>0.9369427190360959</v>
+        <v>0.9130316535518725</v>
       </c>
       <c r="E5">
-        <v>1.009991005791239</v>
+        <v>1.142954550252163</v>
       </c>
       <c r="F5">
-        <v>1.026842009748538</v>
+        <v>1.037466948242076</v>
       </c>
       <c r="G5">
-        <v>1.024520278199222</v>
+        <v>1.04925982072046</v>
       </c>
       <c r="H5">
-        <v>0.9683249187367248</v>
+        <v>0.8618115352017307</v>
       </c>
       <c r="I5">
-        <v>1.014903839837005</v>
+        <v>0.8618115352017307</v>
       </c>
       <c r="J5">
-        <v>0.9369427190360959</v>
+        <v>1.008810256138329</v>
       </c>
       <c r="K5">
-        <v>1.026842009748538</v>
+        <v>1.008810256138329</v>
       </c>
       <c r="L5">
-        <v>1.009991005791239</v>
+        <v>1.04925982072046</v>
       </c>
       <c r="M5">
-        <v>0.9734668624136675</v>
+        <v>0.9555356779610953</v>
       </c>
       <c r="N5">
-        <v>0.9734668624136675</v>
+        <v>0.9555356779610953</v>
       </c>
       <c r="O5">
-        <v>0.9717528811880199</v>
+        <v>0.9413676698246878</v>
       </c>
       <c r="P5">
-        <v>0.9912585781919577</v>
+        <v>0.9732938706868398</v>
       </c>
       <c r="Q5">
-        <v>0.9912585781919577</v>
+        <v>0.9732938706868399</v>
       </c>
       <c r="R5">
-        <v>1.000154436081103</v>
+        <v>0.9821729670497121</v>
       </c>
       <c r="S5">
-        <v>1.000154436081103</v>
+        <v>0.9821729670497121</v>
       </c>
       <c r="T5">
-        <v>0.9969207952248041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.002222460684438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.039199149679358</v>
+        <v>0.9839825738908773</v>
       </c>
       <c r="D6">
-        <v>0.9077662942533322</v>
+        <v>0.7100076925596597</v>
       </c>
       <c r="E6">
-        <v>1.014727632610789</v>
+        <v>1.533300751186182</v>
       </c>
       <c r="F6">
-        <v>1.039199149679358</v>
+        <v>1.121762140148446</v>
       </c>
       <c r="G6">
-        <v>1.036142462485546</v>
+        <v>1.178461508073961</v>
       </c>
       <c r="H6">
-        <v>0.9535094788986467</v>
+        <v>0.5680991623450676</v>
       </c>
       <c r="I6">
-        <v>1.021862185085587</v>
+        <v>0.5680991623450676</v>
       </c>
       <c r="J6">
-        <v>0.9077662942533322</v>
+        <v>0.9839825738908773</v>
       </c>
       <c r="K6">
-        <v>1.039199149679358</v>
+        <v>0.9839825738908773</v>
       </c>
       <c r="L6">
-        <v>1.014727632610789</v>
+        <v>1.178461508073961</v>
       </c>
       <c r="M6">
-        <v>0.9612469634320605</v>
+        <v>0.8732803352095144</v>
       </c>
       <c r="N6">
-        <v>0.9612469634320605</v>
+        <v>0.8732803352095144</v>
       </c>
       <c r="O6">
-        <v>0.9586678019209226</v>
+        <v>0.8188561209928963</v>
       </c>
       <c r="P6">
-        <v>0.9872310255144932</v>
+        <v>0.9101810814366353</v>
       </c>
       <c r="Q6">
-        <v>0.9872310255144932</v>
+        <v>0.9101810814366353</v>
       </c>
       <c r="R6">
-        <v>1.00022305655571</v>
+        <v>0.9286314545501958</v>
       </c>
       <c r="S6">
-        <v>1.00022305655571</v>
+        <v>0.9286314545501958</v>
       </c>
       <c r="T6">
-        <v>0.9955345338355431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.015935638034032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999781619008445</v>
+        <v>1.007762072131477</v>
       </c>
       <c r="D7">
-        <v>0.999108625527915</v>
+        <v>0.9906628297829714</v>
       </c>
       <c r="E7">
-        <v>1.000360764767002</v>
+        <v>1.00735312536778</v>
       </c>
       <c r="F7">
-        <v>0.9999781619008445</v>
+        <v>1.004397526991071</v>
       </c>
       <c r="G7">
-        <v>1.001065387726505</v>
+        <v>1.003012940847726</v>
       </c>
       <c r="H7">
-        <v>0.999410753563401</v>
+        <v>0.9813991357291133</v>
       </c>
       <c r="I7">
-        <v>1.000249218224188</v>
+        <v>0.9813991357291133</v>
       </c>
       <c r="J7">
-        <v>0.999108625527915</v>
+        <v>1.007762072131477</v>
       </c>
       <c r="K7">
-        <v>0.9999781619008445</v>
+        <v>1.007762072131477</v>
       </c>
       <c r="L7">
-        <v>1.000360764767002</v>
+        <v>1.003012940847726</v>
       </c>
       <c r="M7">
-        <v>0.9997346951474584</v>
+        <v>0.9922060382884195</v>
       </c>
       <c r="N7">
-        <v>0.9997346951474584</v>
+        <v>0.9922060382884195</v>
       </c>
       <c r="O7">
-        <v>0.9996267146194393</v>
+        <v>0.9916916354532702</v>
       </c>
       <c r="P7">
-        <v>0.9998158507319204</v>
+        <v>0.997391382902772</v>
       </c>
       <c r="Q7">
-        <v>0.9998158507319204</v>
+        <v>0.997391382902772</v>
       </c>
       <c r="R7">
-        <v>0.9998564285241514</v>
+        <v>0.9999840552099482</v>
       </c>
       <c r="S7">
-        <v>0.9998564285241514</v>
+        <v>0.9999840552099482</v>
       </c>
       <c r="T7">
-        <v>1.000028818618309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9990979384750229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999526229478879</v>
+        <v>0.9991815967586943</v>
       </c>
       <c r="D8">
-        <v>0.9977106898975965</v>
+        <v>0.99931143537058</v>
       </c>
       <c r="E8">
-        <v>1.000919774171654</v>
+        <v>1.002033769140755</v>
       </c>
       <c r="F8">
-        <v>0.9999526229478879</v>
+        <v>1.000277653754377</v>
       </c>
       <c r="G8">
-        <v>1.002696143912567</v>
+        <v>1.000728706520544</v>
       </c>
       <c r="H8">
-        <v>0.9984979269564394</v>
+        <v>0.9992038155274823</v>
       </c>
       <c r="I8">
-        <v>1.000637805822004</v>
+        <v>0.9992038155274823</v>
       </c>
       <c r="J8">
-        <v>0.9977106898975965</v>
+        <v>0.9991815967586943</v>
       </c>
       <c r="K8">
-        <v>0.9999526229478879</v>
+        <v>0.9991815967586943</v>
       </c>
       <c r="L8">
-        <v>1.000919774171654</v>
+        <v>1.000728706520544</v>
       </c>
       <c r="M8">
-        <v>0.9993152320346254</v>
+        <v>0.9999662610240133</v>
       </c>
       <c r="N8">
-        <v>0.9993152320346254</v>
+        <v>0.9999662610240133</v>
       </c>
       <c r="O8">
-        <v>0.9990427970085634</v>
+        <v>0.9997479858062022</v>
       </c>
       <c r="P8">
-        <v>0.9995276956723794</v>
+        <v>0.999704706268907</v>
       </c>
       <c r="Q8">
-        <v>0.9995276956723794</v>
+        <v>0.999704706268907</v>
       </c>
       <c r="R8">
-        <v>0.9996339274912566</v>
+        <v>0.9995739288913539</v>
       </c>
       <c r="S8">
-        <v>0.9996339274912566</v>
+        <v>0.9995739288913539</v>
       </c>
       <c r="T8">
-        <v>1.000069160618025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>1.000122829512072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999649963790531</v>
+        <v>1.014134673881566</v>
       </c>
       <c r="D9">
-        <v>0.996758842187877</v>
+        <v>0.9834711376313343</v>
       </c>
       <c r="E9">
-        <v>1.001282635235409</v>
+        <v>1.012612920375124</v>
       </c>
       <c r="F9">
-        <v>0.9999649963790531</v>
+        <v>1.007792802506031</v>
       </c>
       <c r="G9">
-        <v>1.003724799834581</v>
+        <v>1.005182977435622</v>
       </c>
       <c r="H9">
-        <v>0.9978953533951669</v>
+        <v>0.9669519565561844</v>
       </c>
       <c r="I9">
-        <v>1.0008984834461</v>
+        <v>0.9669519565561844</v>
       </c>
       <c r="J9">
-        <v>0.996758842187877</v>
+        <v>1.014134673881566</v>
       </c>
       <c r="K9">
-        <v>0.9999649963790531</v>
+        <v>1.014134673881566</v>
       </c>
       <c r="L9">
-        <v>1.001282635235409</v>
+        <v>1.005182977435622</v>
       </c>
       <c r="M9">
-        <v>0.9990207387116429</v>
+        <v>0.9860674669959031</v>
       </c>
       <c r="N9">
-        <v>0.9990207387116429</v>
+        <v>0.9860674669959031</v>
       </c>
       <c r="O9">
-        <v>0.9986456102728175</v>
+        <v>0.9852020238743803</v>
       </c>
       <c r="P9">
-        <v>0.9993354912674463</v>
+        <v>0.9954232026244574</v>
       </c>
       <c r="Q9">
-        <v>0.9993354912674463</v>
+        <v>0.9954232026244574</v>
       </c>
       <c r="R9">
-        <v>0.9994928675453481</v>
+        <v>1.000101070438735</v>
       </c>
       <c r="S9">
-        <v>0.9994928675453481</v>
+        <v>1.000101070438735</v>
       </c>
       <c r="T9">
-        <v>1.000087518413031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9983577447309768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999236825514229</v>
+        <v>0.9814795055814179</v>
       </c>
       <c r="D10">
-        <v>0.9930211386196439</v>
+        <v>0.7057314585161016</v>
       </c>
       <c r="E10">
-        <v>1.002762080128579</v>
+        <v>1.544159252961416</v>
       </c>
       <c r="F10">
-        <v>0.9999236825514229</v>
+        <v>1.123344991014803</v>
       </c>
       <c r="G10">
-        <v>1.008044308874444</v>
+        <v>1.181725805954586</v>
       </c>
       <c r="H10">
-        <v>0.9954629817593231</v>
+        <v>0.5637216591357709</v>
       </c>
       <c r="I10">
-        <v>1.001934557447697</v>
+        <v>0.5637216591357709</v>
       </c>
       <c r="J10">
-        <v>0.9930211386196439</v>
+        <v>0.9814795055814179</v>
       </c>
       <c r="K10">
-        <v>0.9999236825514229</v>
+        <v>0.9814795055814179</v>
       </c>
       <c r="L10">
-        <v>1.002762080128579</v>
+        <v>1.181725805954586</v>
       </c>
       <c r="M10">
-        <v>0.9978916093741117</v>
+        <v>0.8727237325451784</v>
       </c>
       <c r="N10">
-        <v>0.9978916093741117</v>
+        <v>0.8727237325451784</v>
       </c>
       <c r="O10">
-        <v>0.9970820668358488</v>
+        <v>0.8170596412021528</v>
       </c>
       <c r="P10">
-        <v>0.9985689670998821</v>
+        <v>0.9089756568905916</v>
       </c>
       <c r="Q10">
-        <v>0.9985689670998821</v>
+        <v>0.9089756568905916</v>
       </c>
       <c r="R10">
-        <v>0.9989076459627673</v>
+        <v>0.9271016190632981</v>
       </c>
       <c r="S10">
-        <v>0.9989076459627673</v>
+        <v>0.9271016190632981</v>
       </c>
       <c r="T10">
-        <v>1.000191458230185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.016693778860682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999327247296158</v>
+        <v>1.029914601432402</v>
       </c>
       <c r="D11">
-        <v>0.9883281242694535</v>
+        <v>0.9730702420913527</v>
       </c>
       <c r="E11">
-        <v>1.004577501320205</v>
+        <v>1.015245637183893</v>
       </c>
       <c r="F11">
-        <v>0.9999327247296158</v>
+        <v>1.012465677398484</v>
       </c>
       <c r="G11">
-        <v>1.013227235868085</v>
+        <v>1.005285051518018</v>
       </c>
       <c r="H11">
-        <v>0.9924720580708655</v>
+        <v>0.9464665150187727</v>
       </c>
       <c r="I11">
-        <v>1.003223339131017</v>
+        <v>0.9464665150187727</v>
       </c>
       <c r="J11">
-        <v>0.9883281242694535</v>
+        <v>1.029914601432402</v>
       </c>
       <c r="K11">
-        <v>0.9999327247296158</v>
+        <v>1.029914601432402</v>
       </c>
       <c r="L11">
-        <v>1.004577501320205</v>
+        <v>1.005285051518018</v>
       </c>
       <c r="M11">
-        <v>0.996452812794829</v>
+        <v>0.9758757832683953</v>
       </c>
       <c r="N11">
-        <v>0.996452812794829</v>
+        <v>0.9758757832683953</v>
       </c>
       <c r="O11">
-        <v>0.9951258945535079</v>
+        <v>0.9749406028760478</v>
       </c>
       <c r="P11">
-        <v>0.997612783439758</v>
+        <v>0.9938887226563974</v>
       </c>
       <c r="Q11">
-        <v>0.997612783439758</v>
+        <v>0.9938887226563975</v>
       </c>
       <c r="R11">
-        <v>0.9981927687622224</v>
+        <v>1.002895192350399</v>
       </c>
       <c r="S11">
-        <v>0.9981927687622224</v>
+        <v>1.002895192350399</v>
       </c>
       <c r="T11">
-        <v>1.00029349723154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9970746207738205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.034299235804317</v>
+        <v>0.993244994999999</v>
       </c>
       <c r="D12">
-        <v>1.082247054752975</v>
+        <v>0.9116258029473681</v>
       </c>
       <c r="E12">
-        <v>0.9486880292113042</v>
+        <v>1.164478286915789</v>
       </c>
       <c r="F12">
-        <v>1.034299235804317</v>
+        <v>1.036995467957895</v>
       </c>
       <c r="G12">
-        <v>0.8459595168994626</v>
+        <v>1.054999769326315</v>
       </c>
       <c r="H12">
-        <v>1.065715635334983</v>
+        <v>0.8700978064421067</v>
       </c>
       <c r="I12">
-        <v>0.9736475715613275</v>
+        <v>0.8700978064421067</v>
       </c>
       <c r="J12">
-        <v>1.082247054752975</v>
+        <v>0.993244994999999</v>
       </c>
       <c r="K12">
-        <v>1.034299235804317</v>
+        <v>0.993244994999999</v>
       </c>
       <c r="L12">
-        <v>0.9486880292113042</v>
+        <v>1.054999769326315</v>
       </c>
       <c r="M12">
-        <v>1.01546754198214</v>
+        <v>0.9625487878842107</v>
       </c>
       <c r="N12">
-        <v>1.01546754198214</v>
+        <v>0.9625487878842107</v>
       </c>
       <c r="O12">
-        <v>1.032216906433087</v>
+        <v>0.9455744595719299</v>
       </c>
       <c r="P12">
-        <v>1.021744773256199</v>
+        <v>0.9727808569228068</v>
       </c>
       <c r="Q12">
-        <v>1.021744773256199</v>
+        <v>0.9727808569228067</v>
       </c>
       <c r="R12">
-        <v>1.024883388893228</v>
+        <v>0.9778968914421048</v>
       </c>
       <c r="S12">
-        <v>1.024883388893228</v>
+        <v>0.9778968914421048</v>
       </c>
       <c r="T12">
-        <v>0.9917595072607283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.005240354764912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9645573647888191</v>
+        <v>0.9802147653557584</v>
       </c>
       <c r="D13">
-        <v>1.050096038616672</v>
+        <v>1.058601110701631</v>
       </c>
       <c r="E13">
-        <v>1.000642851821473</v>
+        <v>0.921274419829571</v>
       </c>
       <c r="F13">
-        <v>0.9645573647888191</v>
+        <v>0.9736477442689017</v>
       </c>
       <c r="G13">
-        <v>1.00942777778985</v>
+        <v>0.9709452632943285</v>
       </c>
       <c r="H13">
-        <v>1.018276349339149</v>
+        <v>1.103561064059937</v>
       </c>
       <c r="I13">
-        <v>0.9901223040686719</v>
+        <v>1.103561064059937</v>
       </c>
       <c r="J13">
-        <v>1.050096038616672</v>
+        <v>0.9802147653557584</v>
       </c>
       <c r="K13">
-        <v>0.9645573647888191</v>
+        <v>0.9802147653557584</v>
       </c>
       <c r="L13">
-        <v>1.000642851821473</v>
+        <v>0.9709452632943285</v>
       </c>
       <c r="M13">
-        <v>1.025369445219072</v>
+        <v>1.037253163677133</v>
       </c>
       <c r="N13">
-        <v>1.025369445219072</v>
+        <v>1.037253163677133</v>
       </c>
       <c r="O13">
-        <v>1.023005079925764</v>
+        <v>1.044369146018632</v>
       </c>
       <c r="P13">
-        <v>1.005098751742321</v>
+        <v>1.018240364236675</v>
       </c>
       <c r="Q13">
-        <v>1.005098751742321</v>
+        <v>1.018240364236675</v>
       </c>
       <c r="R13">
-        <v>0.9949634050039458</v>
+        <v>1.008733964516445</v>
       </c>
       <c r="S13">
-        <v>0.9949634050039458</v>
+        <v>1.008733964516445</v>
       </c>
       <c r="T13">
-        <v>1.005520447737439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.001374061251688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.035987231812905</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="D14">
-        <v>1.076880447286525</v>
+        <v>0.4918962299999994</v>
       </c>
       <c r="E14">
-        <v>0.9488248079665859</v>
+        <v>1.947381500000003</v>
       </c>
       <c r="F14">
-        <v>1.035987231812905</v>
+        <v>1.212557700000001</v>
       </c>
       <c r="G14">
-        <v>0.8413008552341322</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="H14">
-        <v>1.065926112515618</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="I14">
-        <v>0.9742366007178364</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="J14">
-        <v>1.076880447286525</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="K14">
-        <v>1.035987231812905</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="L14">
-        <v>0.9488248079665859</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="M14">
-        <v>1.012852627626555</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="N14">
-        <v>1.012852627626555</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="O14">
-        <v>1.030543789256243</v>
+        <v>0.6859451833333328</v>
       </c>
       <c r="P14">
-        <v>1.020564162355339</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="Q14">
-        <v>1.020564162355339</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="R14">
-        <v>1.02441992971973</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="S14">
-        <v>1.02441992971973</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="T14">
-        <v>0.9905260092556003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.029934911666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9652915770361605</v>
+        <v>0.99179523</v>
       </c>
       <c r="D15">
-        <v>1.055007825826831</v>
+        <v>0.8102012999999999</v>
       </c>
       <c r="E15">
-        <v>0.9996640585699197</v>
+        <v>1.315746</v>
       </c>
       <c r="F15">
-        <v>0.9652915770361605</v>
+        <v>1.0863897</v>
       </c>
       <c r="G15">
-        <v>1.011927935158048</v>
+        <v>1.1253174</v>
       </c>
       <c r="H15">
-        <v>1.017857111946835</v>
+        <v>0.6733951500000001</v>
       </c>
       <c r="I15">
-        <v>0.9896429273507429</v>
+        <v>0.6733951500000001</v>
       </c>
       <c r="J15">
-        <v>1.055007825826831</v>
+        <v>0.99179523</v>
       </c>
       <c r="K15">
-        <v>0.9652915770361605</v>
+        <v>0.99179523</v>
       </c>
       <c r="L15">
-        <v>0.9996640585699197</v>
+        <v>1.1253174</v>
       </c>
       <c r="M15">
-        <v>1.027335942198375</v>
+        <v>0.8993562749999999</v>
       </c>
       <c r="N15">
-        <v>1.027335942198375</v>
+        <v>0.8993562749999999</v>
       </c>
       <c r="O15">
-        <v>1.024176332114529</v>
+        <v>0.8696379499999999</v>
       </c>
       <c r="P15">
-        <v>1.006654487144304</v>
+        <v>0.93016926</v>
       </c>
       <c r="Q15">
-        <v>1.006654487144304</v>
+        <v>0.93016926</v>
       </c>
       <c r="R15">
-        <v>0.996313759617268</v>
+        <v>0.9455757525</v>
       </c>
       <c r="S15">
-        <v>0.996313759617268</v>
+        <v>0.9455757525</v>
       </c>
       <c r="T15">
-        <v>1.006565239314756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>1.00047413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000444110696499</v>
+        <v>1.3679559</v>
       </c>
       <c r="D16">
-        <v>0.999843814553768</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="E16">
-        <v>0.9998474579540093</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="F16">
-        <v>1.000444110696499</v>
+        <v>1.1014624</v>
       </c>
       <c r="G16">
-        <v>0.9997000822081422</v>
+        <v>0.99179431</v>
       </c>
       <c r="H16">
-        <v>0.9999445733183495</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I16">
-        <v>1.000021408762528</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J16">
-        <v>0.999843814553768</v>
+        <v>1.3679559</v>
       </c>
       <c r="K16">
-        <v>1.000444110696499</v>
+        <v>1.3679559</v>
       </c>
       <c r="L16">
-        <v>0.9998474579540093</v>
+        <v>0.99179431</v>
       </c>
       <c r="M16">
-        <v>0.9998456362538887</v>
+        <v>0.75735024</v>
       </c>
       <c r="N16">
-        <v>0.9998456362538887</v>
+        <v>0.75735024</v>
       </c>
       <c r="O16">
-        <v>0.9998786152753757</v>
+        <v>0.76950231</v>
       </c>
       <c r="P16">
-        <v>1.000045127734759</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q16">
-        <v>1.000045127734759</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R16">
-        <v>1.000144873475194</v>
+        <v>1.06265307</v>
       </c>
       <c r="S16">
-        <v>1.000144873475194</v>
+        <v>1.06265307</v>
       </c>
       <c r="T16">
-        <v>0.9999669079155492</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9991815967586943</v>
+        <v>0.8915424299999999</v>
       </c>
       <c r="D17">
-        <v>0.9992038155274826</v>
+        <v>1.1532739</v>
       </c>
       <c r="E17">
-        <v>1.000728706520544</v>
+        <v>0.8283339199999999</v>
       </c>
       <c r="F17">
-        <v>0.9991815967586943</v>
+        <v>0.93542049</v>
       </c>
       <c r="G17">
-        <v>1.002033769140755</v>
+        <v>0.9534773099999999</v>
       </c>
       <c r="H17">
-        <v>0.9993114353705799</v>
+        <v>1.2480078</v>
       </c>
       <c r="I17">
-        <v>1.000277653754377</v>
+        <v>1.2480078</v>
       </c>
       <c r="J17">
-        <v>0.9992038155274826</v>
+        <v>0.8915424299999999</v>
       </c>
       <c r="K17">
-        <v>0.9991815967586943</v>
+        <v>0.8915424299999999</v>
       </c>
       <c r="L17">
-        <v>1.000728706520544</v>
+        <v>0.9534773099999999</v>
       </c>
       <c r="M17">
-        <v>0.9999662610240134</v>
+        <v>1.100742555</v>
       </c>
       <c r="N17">
-        <v>0.9999662610240134</v>
+        <v>1.100742555</v>
       </c>
       <c r="O17">
-        <v>0.9997479858062022</v>
+        <v>1.118253003333333</v>
       </c>
       <c r="P17">
-        <v>0.9997047062689072</v>
+        <v>1.03100918</v>
       </c>
       <c r="Q17">
-        <v>0.9997047062689072</v>
+        <v>1.03100918</v>
       </c>
       <c r="R17">
-        <v>0.9995739288913539</v>
+        <v>0.9961424924999999</v>
       </c>
       <c r="S17">
-        <v>0.9995739288913539</v>
+        <v>0.9961424924999999</v>
       </c>
       <c r="T17">
-        <v>1.000122829512072</v>
+        <v>1.001675975</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004092283779646</v>
+        <v>1.177298675205479</v>
       </c>
       <c r="D18">
-        <v>0.9940334462267663</v>
+        <v>0.8021192230136984</v>
       </c>
       <c r="E18">
-        <v>1.000160533541864</v>
+        <v>1.141209379178082</v>
       </c>
       <c r="F18">
-        <v>1.004092283779646</v>
+        <v>1.09382152739726</v>
       </c>
       <c r="G18">
-        <v>1.000326193131842</v>
+        <v>1.059468789863014</v>
       </c>
       <c r="H18">
-        <v>0.9972864496660786</v>
+        <v>0.5991860223287672</v>
       </c>
       <c r="I18">
-        <v>1.001306817296177</v>
+        <v>0.5991860223287672</v>
       </c>
       <c r="J18">
-        <v>0.9940334462267663</v>
+        <v>1.177298675205479</v>
       </c>
       <c r="K18">
-        <v>1.004092283779646</v>
+        <v>1.177298675205479</v>
       </c>
       <c r="L18">
-        <v>1.000160533541864</v>
+        <v>1.059468789863014</v>
       </c>
       <c r="M18">
-        <v>0.9970969898843154</v>
+        <v>0.8293274060958904</v>
       </c>
       <c r="N18">
-        <v>0.9970969898843154</v>
+        <v>0.8293274060958904</v>
       </c>
       <c r="O18">
-        <v>0.9971601431449031</v>
+        <v>0.8202580117351598</v>
       </c>
       <c r="P18">
-        <v>0.9994287545160923</v>
+        <v>0.9453178291324201</v>
       </c>
       <c r="Q18">
-        <v>0.9994287545160923</v>
+        <v>0.9453178291324199</v>
       </c>
       <c r="R18">
-        <v>1.000594636831981</v>
+        <v>1.003313040650685</v>
       </c>
       <c r="S18">
-        <v>1.000594636831981</v>
+        <v>1.003313040650685</v>
       </c>
       <c r="T18">
-        <v>0.9995342872737289</v>
+        <v>0.9788506028310501</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.014320836416371</v>
+        <v>1.060644875789474</v>
       </c>
       <c r="D19">
-        <v>0.9841079466769528</v>
+        <v>0.9122313226315787</v>
       </c>
       <c r="E19">
-        <v>0.9987104479241441</v>
+        <v>1.079401156315789</v>
       </c>
       <c r="F19">
-        <v>1.014320836416371</v>
+        <v>1.04188314</v>
       </c>
       <c r="G19">
-        <v>0.9962699872529285</v>
+        <v>1.034162258947369</v>
       </c>
       <c r="H19">
-        <v>0.9934298660006664</v>
+        <v>0.8205205531578945</v>
       </c>
       <c r="I19">
-        <v>1.003261579577479</v>
+        <v>0.8205205531578945</v>
       </c>
       <c r="J19">
-        <v>0.9841079466769528</v>
+        <v>1.060644875789474</v>
       </c>
       <c r="K19">
-        <v>1.014320836416371</v>
+        <v>1.060644875789474</v>
       </c>
       <c r="L19">
-        <v>0.9987104479241441</v>
+        <v>1.034162258947369</v>
       </c>
       <c r="M19">
-        <v>0.9914091973005484</v>
+        <v>0.9273414060526316</v>
       </c>
       <c r="N19">
-        <v>0.9914091973005484</v>
+        <v>0.9273414060526316</v>
       </c>
       <c r="O19">
-        <v>0.9920827535339211</v>
+        <v>0.9223047115789473</v>
       </c>
       <c r="P19">
-        <v>0.999046410339156</v>
+        <v>0.9717758959649122</v>
       </c>
       <c r="Q19">
-        <v>0.999046410339156</v>
+        <v>0.9717758959649122</v>
       </c>
       <c r="R19">
-        <v>1.00286501685846</v>
+        <v>0.9939931409210525</v>
       </c>
       <c r="S19">
-        <v>1.00286501685846</v>
+        <v>0.9939931409210525</v>
       </c>
       <c r="T19">
-        <v>0.9983501106414235</v>
+        <v>0.991473884473684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9584451305263157</v>
+      </c>
+      <c r="D20">
+        <v>0.9144070715789473</v>
+      </c>
+      <c r="E20">
+        <v>1.203648202631579</v>
+      </c>
+      <c r="F20">
+        <v>1.032922123157895</v>
+      </c>
+      <c r="G20">
+        <v>1.063571071578947</v>
+      </c>
+      <c r="H20">
+        <v>0.9028521389473685</v>
+      </c>
+      <c r="I20">
+        <v>0.9028521389473685</v>
+      </c>
+      <c r="J20">
+        <v>0.9584451305263157</v>
+      </c>
+      <c r="K20">
+        <v>0.9584451305263157</v>
+      </c>
+      <c r="L20">
+        <v>1.063571071578947</v>
+      </c>
+      <c r="M20">
+        <v>0.9832116052631579</v>
+      </c>
+      <c r="N20">
+        <v>0.9832116052631579</v>
+      </c>
+      <c r="O20">
+        <v>0.9602767607017544</v>
+      </c>
+      <c r="P20">
+        <v>0.9749561136842105</v>
+      </c>
+      <c r="Q20">
+        <v>0.9749561136842105</v>
+      </c>
+      <c r="R20">
+        <v>0.9708283678947368</v>
+      </c>
+      <c r="S20">
+        <v>0.9708283678947368</v>
+      </c>
+      <c r="T20">
+        <v>1.012640956403509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.035987231812905</v>
+      </c>
+      <c r="D21">
+        <v>1.065926112515618</v>
+      </c>
+      <c r="E21">
+        <v>0.8413008552341321</v>
+      </c>
+      <c r="F21">
+        <v>0.9742366007178362</v>
+      </c>
+      <c r="G21">
+        <v>0.948824807966586</v>
+      </c>
+      <c r="H21">
+        <v>1.076880447286525</v>
+      </c>
+      <c r="I21">
+        <v>1.076880447286525</v>
+      </c>
+      <c r="J21">
+        <v>1.035987231812905</v>
+      </c>
+      <c r="K21">
+        <v>1.035987231812905</v>
+      </c>
+      <c r="L21">
+        <v>0.948824807966586</v>
+      </c>
+      <c r="M21">
+        <v>1.012852627626555</v>
+      </c>
+      <c r="N21">
+        <v>1.012852627626555</v>
+      </c>
+      <c r="O21">
+        <v>1.030543789256243</v>
+      </c>
+      <c r="P21">
+        <v>1.020564162355339</v>
+      </c>
+      <c r="Q21">
+        <v>1.020564162355339</v>
+      </c>
+      <c r="R21">
+        <v>1.02441992971973</v>
+      </c>
+      <c r="S21">
+        <v>1.02441992971973</v>
+      </c>
+      <c r="T21">
+        <v>0.9905260092556002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9652915770361605</v>
+      </c>
+      <c r="D22">
+        <v>1.017857111946835</v>
+      </c>
+      <c r="E22">
+        <v>1.011927935158048</v>
+      </c>
+      <c r="F22">
+        <v>0.9896429273507429</v>
+      </c>
+      <c r="G22">
+        <v>0.9996640585699197</v>
+      </c>
+      <c r="H22">
+        <v>1.055007825826831</v>
+      </c>
+      <c r="I22">
+        <v>1.055007825826831</v>
+      </c>
+      <c r="J22">
+        <v>0.9652915770361605</v>
+      </c>
+      <c r="K22">
+        <v>0.9652915770361605</v>
+      </c>
+      <c r="L22">
+        <v>0.9996640585699197</v>
+      </c>
+      <c r="M22">
+        <v>1.027335942198375</v>
+      </c>
+      <c r="N22">
+        <v>1.027335942198375</v>
+      </c>
+      <c r="O22">
+        <v>1.024176332114529</v>
+      </c>
+      <c r="P22">
+        <v>1.006654487144304</v>
+      </c>
+      <c r="Q22">
+        <v>1.006654487144304</v>
+      </c>
+      <c r="R22">
+        <v>0.996313759617268</v>
+      </c>
+      <c r="S22">
+        <v>0.996313759617268</v>
+      </c>
+      <c r="T22">
+        <v>1.006565239314756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.034299235804317</v>
+      </c>
+      <c r="D23">
+        <v>1.065715635334983</v>
+      </c>
+      <c r="E23">
+        <v>0.8459595168994624</v>
+      </c>
+      <c r="F23">
+        <v>0.9736475715613275</v>
+      </c>
+      <c r="G23">
+        <v>0.9486880292113041</v>
+      </c>
+      <c r="H23">
+        <v>1.082247054752975</v>
+      </c>
+      <c r="I23">
+        <v>1.082247054752975</v>
+      </c>
+      <c r="J23">
+        <v>1.034299235804317</v>
+      </c>
+      <c r="K23">
+        <v>1.034299235804317</v>
+      </c>
+      <c r="L23">
+        <v>0.9486880292113041</v>
+      </c>
+      <c r="M23">
+        <v>1.01546754198214</v>
+      </c>
+      <c r="N23">
+        <v>1.01546754198214</v>
+      </c>
+      <c r="O23">
+        <v>1.032216906433087</v>
+      </c>
+      <c r="P23">
+        <v>1.021744773256199</v>
+      </c>
+      <c r="Q23">
+        <v>1.021744773256199</v>
+      </c>
+      <c r="R23">
+        <v>1.024883388893228</v>
+      </c>
+      <c r="S23">
+        <v>1.024883388893228</v>
+      </c>
+      <c r="T23">
+        <v>0.9917595072607283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9645573647888191</v>
+      </c>
+      <c r="D24">
+        <v>1.018276349339149</v>
+      </c>
+      <c r="E24">
+        <v>1.00942777778985</v>
+      </c>
+      <c r="F24">
+        <v>0.9901223040686719</v>
+      </c>
+      <c r="G24">
+        <v>1.000642851821473</v>
+      </c>
+      <c r="H24">
+        <v>1.050096038616672</v>
+      </c>
+      <c r="I24">
+        <v>1.050096038616672</v>
+      </c>
+      <c r="J24">
+        <v>0.9645573647888191</v>
+      </c>
+      <c r="K24">
+        <v>0.9645573647888191</v>
+      </c>
+      <c r="L24">
+        <v>1.000642851821473</v>
+      </c>
+      <c r="M24">
+        <v>1.025369445219072</v>
+      </c>
+      <c r="N24">
+        <v>1.025369445219072</v>
+      </c>
+      <c r="O24">
+        <v>1.023005079925764</v>
+      </c>
+      <c r="P24">
+        <v>1.005098751742321</v>
+      </c>
+      <c r="Q24">
+        <v>1.005098751742321</v>
+      </c>
+      <c r="R24">
+        <v>0.9949634050039458</v>
+      </c>
+      <c r="S24">
+        <v>0.9949634050039458</v>
+      </c>
+      <c r="T24">
+        <v>1.005520447737439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.032613787794711</v>
+      </c>
+      <c r="D25">
+        <v>1.065504002113333</v>
+      </c>
+      <c r="E25">
+        <v>0.8506176846503331</v>
+      </c>
+      <c r="F25">
+        <v>0.9730590755090112</v>
+      </c>
+      <c r="G25">
+        <v>0.9485509585659506</v>
+      </c>
+      <c r="H25">
+        <v>1.08761119132621</v>
+      </c>
+      <c r="I25">
+        <v>1.08761119132621</v>
+      </c>
+      <c r="J25">
+        <v>1.032613787794711</v>
+      </c>
+      <c r="K25">
+        <v>1.032613787794711</v>
+      </c>
+      <c r="L25">
+        <v>0.9485509585659506</v>
+      </c>
+      <c r="M25">
+        <v>1.01808107494608</v>
+      </c>
+      <c r="N25">
+        <v>1.01808107494608</v>
+      </c>
+      <c r="O25">
+        <v>1.033888717335165</v>
+      </c>
+      <c r="P25">
+        <v>1.022925312562291</v>
+      </c>
+      <c r="Q25">
+        <v>1.02292531256229</v>
+      </c>
+      <c r="R25">
+        <v>1.025347431370395</v>
+      </c>
+      <c r="S25">
+        <v>1.025347431370395</v>
+      </c>
+      <c r="T25">
+        <v>0.9929927833265916</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9638221813622511</v>
+      </c>
+      <c r="D26">
+        <v>1.018695387507476</v>
+      </c>
+      <c r="E26">
+        <v>1.006928559361844</v>
+      </c>
+      <c r="F26">
+        <v>0.9906018303679908</v>
+      </c>
+      <c r="G26">
+        <v>1.001622270446075</v>
+      </c>
+      <c r="H26">
+        <v>1.045183547486109</v>
+      </c>
+      <c r="I26">
+        <v>1.045183547486109</v>
+      </c>
+      <c r="J26">
+        <v>0.9638221813622511</v>
+      </c>
+      <c r="K26">
+        <v>0.9638221813622511</v>
+      </c>
+      <c r="L26">
+        <v>1.001622270446075</v>
+      </c>
+      <c r="M26">
+        <v>1.023402908966092</v>
+      </c>
+      <c r="N26">
+        <v>1.023402908966092</v>
+      </c>
+      <c r="O26">
+        <v>1.021833735146553</v>
+      </c>
+      <c r="P26">
+        <v>1.003542666431478</v>
+      </c>
+      <c r="Q26">
+        <v>1.003542666431478</v>
+      </c>
+      <c r="R26">
+        <v>0.9936125451641714</v>
+      </c>
+      <c r="S26">
+        <v>0.9936125451641714</v>
+      </c>
+      <c r="T26">
+        <v>1.004475629421957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.018200358817443</v>
+      </c>
+      <c r="D27">
+        <v>0.9695990180661054</v>
+      </c>
+      <c r="E27">
+        <v>1.029719632682923</v>
+      </c>
+      <c r="F27">
+        <v>1.014727742239421</v>
+      </c>
+      <c r="G27">
+        <v>1.013298665865324</v>
+      </c>
+      <c r="H27">
+        <v>0.9354260382605486</v>
+      </c>
+      <c r="I27">
+        <v>0.9354260382605486</v>
+      </c>
+      <c r="J27">
+        <v>1.018200358817443</v>
+      </c>
+      <c r="K27">
+        <v>1.018200358817443</v>
+      </c>
+      <c r="L27">
+        <v>1.013298665865324</v>
+      </c>
+      <c r="M27">
+        <v>0.9743623520629363</v>
+      </c>
+      <c r="N27">
+        <v>0.9743623520629363</v>
+      </c>
+      <c r="O27">
+        <v>0.9727745740639927</v>
+      </c>
+      <c r="P27">
+        <v>0.9889750209811052</v>
+      </c>
+      <c r="Q27">
+        <v>0.9889750209811052</v>
+      </c>
+      <c r="R27">
+        <v>0.9962813554401897</v>
+      </c>
+      <c r="S27">
+        <v>0.9962813554401897</v>
+      </c>
+      <c r="T27">
+        <v>0.9968285759886277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.032967370299977</v>
+      </c>
+      <c r="D28">
+        <v>1.003742460472811</v>
+      </c>
+      <c r="E28">
+        <v>0.9584463366816585</v>
+      </c>
+      <c r="F28">
+        <v>0.9993618598241003</v>
+      </c>
+      <c r="G28">
+        <v>0.9855324263618688</v>
+      </c>
+      <c r="H28">
+        <v>0.9937901246824757</v>
+      </c>
+      <c r="I28">
+        <v>0.9937901246824757</v>
+      </c>
+      <c r="J28">
+        <v>1.032967370299977</v>
+      </c>
+      <c r="K28">
+        <v>1.032967370299977</v>
+      </c>
+      <c r="L28">
+        <v>0.9855324263618688</v>
+      </c>
+      <c r="M28">
+        <v>0.9896612755221723</v>
+      </c>
+      <c r="N28">
+        <v>0.9896612755221723</v>
+      </c>
+      <c r="O28">
+        <v>0.9943550038390517</v>
+      </c>
+      <c r="P28">
+        <v>1.004096640448107</v>
+      </c>
+      <c r="Q28">
+        <v>1.004096640448107</v>
+      </c>
+      <c r="R28">
+        <v>1.011314322911075</v>
+      </c>
+      <c r="S28">
+        <v>1.011314322911075</v>
+      </c>
+      <c r="T28">
+        <v>0.9956400963871485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9941579916311073</v>
+      </c>
+      <c r="D29">
+        <v>1.099234551311955</v>
+      </c>
+      <c r="E29">
+        <v>0.820806711715182</v>
+      </c>
+      <c r="F29">
+        <v>0.9601642381183493</v>
+      </c>
+      <c r="G29">
+        <v>0.9461750388630804</v>
+      </c>
+      <c r="H29">
+        <v>1.134823384510616</v>
+      </c>
+      <c r="I29">
+        <v>1.134823384510616</v>
+      </c>
+      <c r="J29">
+        <v>0.9941579916311073</v>
+      </c>
+      <c r="K29">
+        <v>0.9941579916311073</v>
+      </c>
+      <c r="L29">
+        <v>0.9461750388630804</v>
+      </c>
+      <c r="M29">
+        <v>1.040499211686848</v>
+      </c>
+      <c r="N29">
+        <v>1.040499211686848</v>
+      </c>
+      <c r="O29">
+        <v>1.06007765822855</v>
+      </c>
+      <c r="P29">
+        <v>1.025052138334934</v>
+      </c>
+      <c r="Q29">
+        <v>1.025052138334934</v>
+      </c>
+      <c r="R29">
+        <v>1.017328601658978</v>
+      </c>
+      <c r="S29">
+        <v>1.017328601658978</v>
+      </c>
+      <c r="T29">
+        <v>0.9925603193583816</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.036954644247129</v>
+        <v>1.006560340931292</v>
       </c>
       <c r="D4">
-        <v>0.9713806539614657</v>
+        <v>0.9270970518834148</v>
       </c>
       <c r="E4">
-        <v>1.008752713212554</v>
+        <v>1.120621709077693</v>
       </c>
       <c r="F4">
-        <v>1.013876379666414</v>
+        <v>1.031402538240342</v>
       </c>
       <c r="G4">
-        <v>1.004379151895076</v>
+        <v>1.041625661685543</v>
       </c>
       <c r="H4">
-        <v>0.9375382428229071</v>
+        <v>0.8843346339685189</v>
       </c>
       <c r="I4">
-        <v>0.9375382428229071</v>
+        <v>0.8843346339685189</v>
       </c>
       <c r="J4">
-        <v>1.036954644247129</v>
+        <v>1.006560340931292</v>
       </c>
       <c r="K4">
-        <v>1.036954644247129</v>
+        <v>1.006560340931292</v>
       </c>
       <c r="L4">
-        <v>1.004379151895076</v>
+        <v>1.041625661685543</v>
       </c>
       <c r="M4">
-        <v>0.9709586973589918</v>
+        <v>0.9629801478270308</v>
       </c>
       <c r="N4">
-        <v>0.9709586973589918</v>
+        <v>0.9629801478270308</v>
       </c>
       <c r="O4">
-        <v>0.9710993495598164</v>
+        <v>0.9510191158458254</v>
       </c>
       <c r="P4">
-        <v>0.992957346321704</v>
+        <v>0.9775068788617846</v>
       </c>
       <c r="Q4">
-        <v>0.992957346321704</v>
+        <v>0.9775068788617846</v>
       </c>
       <c r="R4">
-        <v>1.00395667080306</v>
+        <v>0.9847702443791615</v>
       </c>
       <c r="S4">
-        <v>1.00395667080306</v>
+        <v>0.9847702443791615</v>
       </c>
       <c r="T4">
-        <v>0.9954802976342577</v>
+        <v>1.001940322631134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.008810256138329</v>
+        <v>0.956850357467216</v>
       </c>
       <c r="D5">
-        <v>0.9130316535518725</v>
+        <v>0.9505915255347241</v>
       </c>
       <c r="E5">
-        <v>1.142954550252163</v>
+        <v>1.142382644922473</v>
       </c>
       <c r="F5">
-        <v>1.037466948242076</v>
+        <v>1.017268461113676</v>
       </c>
       <c r="G5">
-        <v>1.04925982072046</v>
+        <v>1.042131864647791</v>
       </c>
       <c r="H5">
-        <v>0.8618115352017307</v>
+        <v>0.9608000721303295</v>
       </c>
       <c r="I5">
-        <v>0.8618115352017307</v>
+        <v>0.9608000721303295</v>
       </c>
       <c r="J5">
-        <v>1.008810256138329</v>
+        <v>0.956850357467216</v>
       </c>
       <c r="K5">
-        <v>1.008810256138329</v>
+        <v>0.956850357467216</v>
       </c>
       <c r="L5">
-        <v>1.04925982072046</v>
+        <v>1.042131864647791</v>
       </c>
       <c r="M5">
-        <v>0.9555356779610953</v>
+        <v>1.00146596838906</v>
       </c>
       <c r="N5">
-        <v>0.9555356779610953</v>
+        <v>1.00146596838906</v>
       </c>
       <c r="O5">
-        <v>0.9413676698246878</v>
+        <v>0.9845078207709482</v>
       </c>
       <c r="P5">
-        <v>0.9732938706868398</v>
+        <v>0.9865940980817788</v>
       </c>
       <c r="Q5">
-        <v>0.9732938706868399</v>
+        <v>0.9865940980817788</v>
       </c>
       <c r="R5">
-        <v>0.9821729670497121</v>
+        <v>0.9791581629281381</v>
       </c>
       <c r="S5">
-        <v>0.9821729670497121</v>
+        <v>0.9791581629281381</v>
       </c>
       <c r="T5">
-        <v>1.002222460684438</v>
+        <v>1.011670820969368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9839825738908773</v>
+        <v>1.036954644247129</v>
       </c>
       <c r="D6">
-        <v>0.7100076925596597</v>
+        <v>0.9713806539614657</v>
       </c>
       <c r="E6">
-        <v>1.533300751186182</v>
+        <v>1.008752713212554</v>
       </c>
       <c r="F6">
-        <v>1.121762140148446</v>
+        <v>1.013876379666414</v>
       </c>
       <c r="G6">
-        <v>1.178461508073961</v>
+        <v>1.004379151895076</v>
       </c>
       <c r="H6">
-        <v>0.5680991623450676</v>
+        <v>0.9375382428229071</v>
       </c>
       <c r="I6">
-        <v>0.5680991623450676</v>
+        <v>0.9375382428229071</v>
       </c>
       <c r="J6">
-        <v>0.9839825738908773</v>
+        <v>1.036954644247129</v>
       </c>
       <c r="K6">
-        <v>0.9839825738908773</v>
+        <v>1.036954644247129</v>
       </c>
       <c r="L6">
-        <v>1.178461508073961</v>
+        <v>1.004379151895076</v>
       </c>
       <c r="M6">
-        <v>0.8732803352095144</v>
+        <v>0.9709586973589918</v>
       </c>
       <c r="N6">
-        <v>0.8732803352095144</v>
+        <v>0.9709586973589918</v>
       </c>
       <c r="O6">
-        <v>0.8188561209928963</v>
+        <v>0.9710993495598164</v>
       </c>
       <c r="P6">
-        <v>0.9101810814366353</v>
+        <v>0.992957346321704</v>
       </c>
       <c r="Q6">
-        <v>0.9101810814366353</v>
+        <v>0.992957346321704</v>
       </c>
       <c r="R6">
-        <v>0.9286314545501958</v>
+        <v>1.00395667080306</v>
       </c>
       <c r="S6">
-        <v>0.9286314545501958</v>
+        <v>1.00395667080306</v>
       </c>
       <c r="T6">
-        <v>1.015935638034032</v>
+        <v>0.9954802976342577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.007762072131477</v>
+        <v>1.008810256138329</v>
       </c>
       <c r="D7">
-        <v>0.9906628297829714</v>
+        <v>0.9130316535518725</v>
       </c>
       <c r="E7">
-        <v>1.00735312536778</v>
+        <v>1.142954550252163</v>
       </c>
       <c r="F7">
-        <v>1.004397526991071</v>
+        <v>1.037466948242076</v>
       </c>
       <c r="G7">
-        <v>1.003012940847726</v>
+        <v>1.04925982072046</v>
       </c>
       <c r="H7">
-        <v>0.9813991357291133</v>
+        <v>0.8618115352017307</v>
       </c>
       <c r="I7">
-        <v>0.9813991357291133</v>
+        <v>0.8618115352017307</v>
       </c>
       <c r="J7">
-        <v>1.007762072131477</v>
+        <v>1.008810256138329</v>
       </c>
       <c r="K7">
-        <v>1.007762072131477</v>
+        <v>1.008810256138329</v>
       </c>
       <c r="L7">
-        <v>1.003012940847726</v>
+        <v>1.04925982072046</v>
       </c>
       <c r="M7">
-        <v>0.9922060382884195</v>
+        <v>0.9555356779610953</v>
       </c>
       <c r="N7">
-        <v>0.9922060382884195</v>
+        <v>0.9555356779610953</v>
       </c>
       <c r="O7">
-        <v>0.9916916354532702</v>
+        <v>0.9413676698246878</v>
       </c>
       <c r="P7">
-        <v>0.997391382902772</v>
+        <v>0.9732938706868398</v>
       </c>
       <c r="Q7">
-        <v>0.997391382902772</v>
+        <v>0.9732938706868399</v>
       </c>
       <c r="R7">
-        <v>0.9999840552099482</v>
+        <v>0.9821729670497121</v>
       </c>
       <c r="S7">
-        <v>0.9999840552099482</v>
+        <v>0.9821729670497121</v>
       </c>
       <c r="T7">
-        <v>0.9990979384750229</v>
+        <v>1.002222460684438</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9991815967586943</v>
+        <v>0.9839825738908773</v>
       </c>
       <c r="D8">
-        <v>0.99931143537058</v>
+        <v>0.7100076925596597</v>
       </c>
       <c r="E8">
-        <v>1.002033769140755</v>
+        <v>1.533300751186182</v>
       </c>
       <c r="F8">
-        <v>1.000277653754377</v>
+        <v>1.121762140148446</v>
       </c>
       <c r="G8">
-        <v>1.000728706520544</v>
+        <v>1.178461508073961</v>
       </c>
       <c r="H8">
-        <v>0.9992038155274823</v>
+        <v>0.5680991623450676</v>
       </c>
       <c r="I8">
-        <v>0.9992038155274823</v>
+        <v>0.5680991623450676</v>
       </c>
       <c r="J8">
-        <v>0.9991815967586943</v>
+        <v>0.9839825738908773</v>
       </c>
       <c r="K8">
-        <v>0.9991815967586943</v>
+        <v>0.9839825738908773</v>
       </c>
       <c r="L8">
-        <v>1.000728706520544</v>
+        <v>1.178461508073961</v>
       </c>
       <c r="M8">
-        <v>0.9999662610240133</v>
+        <v>0.8732803352095144</v>
       </c>
       <c r="N8">
-        <v>0.9999662610240133</v>
+        <v>0.8732803352095144</v>
       </c>
       <c r="O8">
-        <v>0.9997479858062022</v>
+        <v>0.8188561209928963</v>
       </c>
       <c r="P8">
-        <v>0.999704706268907</v>
+        <v>0.9101810814366353</v>
       </c>
       <c r="Q8">
-        <v>0.999704706268907</v>
+        <v>0.9101810814366353</v>
       </c>
       <c r="R8">
-        <v>0.9995739288913539</v>
+        <v>0.9286314545501958</v>
       </c>
       <c r="S8">
-        <v>0.9995739288913539</v>
+        <v>0.9286314545501958</v>
       </c>
       <c r="T8">
-        <v>1.000122829512072</v>
+        <v>1.015935638034032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.014134673881566</v>
+        <v>1.007762072131477</v>
       </c>
       <c r="D9">
-        <v>0.9834711376313343</v>
+        <v>0.9906628297829714</v>
       </c>
       <c r="E9">
-        <v>1.012612920375124</v>
+        <v>1.00735312536778</v>
       </c>
       <c r="F9">
-        <v>1.007792802506031</v>
+        <v>1.004397526991071</v>
       </c>
       <c r="G9">
-        <v>1.005182977435622</v>
+        <v>1.003012940847726</v>
       </c>
       <c r="H9">
-        <v>0.9669519565561844</v>
+        <v>0.9813991357291133</v>
       </c>
       <c r="I9">
-        <v>0.9669519565561844</v>
+        <v>0.9813991357291133</v>
       </c>
       <c r="J9">
-        <v>1.014134673881566</v>
+        <v>1.007762072131477</v>
       </c>
       <c r="K9">
-        <v>1.014134673881566</v>
+        <v>1.007762072131477</v>
       </c>
       <c r="L9">
-        <v>1.005182977435622</v>
+        <v>1.003012940847726</v>
       </c>
       <c r="M9">
-        <v>0.9860674669959031</v>
+        <v>0.9922060382884195</v>
       </c>
       <c r="N9">
-        <v>0.9860674669959031</v>
+        <v>0.9922060382884195</v>
       </c>
       <c r="O9">
-        <v>0.9852020238743803</v>
+        <v>0.9916916354532702</v>
       </c>
       <c r="P9">
-        <v>0.9954232026244574</v>
+        <v>0.997391382902772</v>
       </c>
       <c r="Q9">
-        <v>0.9954232026244574</v>
+        <v>0.997391382902772</v>
       </c>
       <c r="R9">
-        <v>1.000101070438735</v>
+        <v>0.9999840552099482</v>
       </c>
       <c r="S9">
-        <v>1.000101070438735</v>
+        <v>0.9999840552099482</v>
       </c>
       <c r="T9">
-        <v>0.9983577447309768</v>
+        <v>0.9990979384750229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9814795055814179</v>
+        <v>0.9991815967586943</v>
       </c>
       <c r="D10">
-        <v>0.7057314585161016</v>
+        <v>0.99931143537058</v>
       </c>
       <c r="E10">
-        <v>1.544159252961416</v>
+        <v>1.002033769140755</v>
       </c>
       <c r="F10">
-        <v>1.123344991014803</v>
+        <v>1.000277653754377</v>
       </c>
       <c r="G10">
-        <v>1.181725805954586</v>
+        <v>1.000728706520544</v>
       </c>
       <c r="H10">
-        <v>0.5637216591357709</v>
+        <v>0.9992038155274823</v>
       </c>
       <c r="I10">
-        <v>0.5637216591357709</v>
+        <v>0.9992038155274823</v>
       </c>
       <c r="J10">
-        <v>0.9814795055814179</v>
+        <v>0.9991815967586943</v>
       </c>
       <c r="K10">
-        <v>0.9814795055814179</v>
+        <v>0.9991815967586943</v>
       </c>
       <c r="L10">
-        <v>1.181725805954586</v>
+        <v>1.000728706520544</v>
       </c>
       <c r="M10">
-        <v>0.8727237325451784</v>
+        <v>0.9999662610240133</v>
       </c>
       <c r="N10">
-        <v>0.8727237325451784</v>
+        <v>0.9999662610240133</v>
       </c>
       <c r="O10">
-        <v>0.8170596412021528</v>
+        <v>0.9997479858062022</v>
       </c>
       <c r="P10">
-        <v>0.9089756568905916</v>
+        <v>0.999704706268907</v>
       </c>
       <c r="Q10">
-        <v>0.9089756568905916</v>
+        <v>0.999704706268907</v>
       </c>
       <c r="R10">
-        <v>0.9271016190632981</v>
+        <v>0.9995739288913539</v>
       </c>
       <c r="S10">
-        <v>0.9271016190632981</v>
+        <v>0.9995739288913539</v>
       </c>
       <c r="T10">
-        <v>1.016693778860682</v>
+        <v>1.000122829512072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.029914601432402</v>
+        <v>1.014134673881566</v>
       </c>
       <c r="D11">
-        <v>0.9730702420913527</v>
+        <v>0.9834711376313343</v>
       </c>
       <c r="E11">
-        <v>1.015245637183893</v>
+        <v>1.012612920375124</v>
       </c>
       <c r="F11">
-        <v>1.012465677398484</v>
+        <v>1.007792802506031</v>
       </c>
       <c r="G11">
-        <v>1.005285051518018</v>
+        <v>1.005182977435622</v>
       </c>
       <c r="H11">
-        <v>0.9464665150187727</v>
+        <v>0.9669519565561844</v>
       </c>
       <c r="I11">
-        <v>0.9464665150187727</v>
+        <v>0.9669519565561844</v>
       </c>
       <c r="J11">
-        <v>1.029914601432402</v>
+        <v>1.014134673881566</v>
       </c>
       <c r="K11">
-        <v>1.029914601432402</v>
+        <v>1.014134673881566</v>
       </c>
       <c r="L11">
-        <v>1.005285051518018</v>
+        <v>1.005182977435622</v>
       </c>
       <c r="M11">
-        <v>0.9758757832683953</v>
+        <v>0.9860674669959031</v>
       </c>
       <c r="N11">
-        <v>0.9758757832683953</v>
+        <v>0.9860674669959031</v>
       </c>
       <c r="O11">
-        <v>0.9749406028760478</v>
+        <v>0.9852020238743803</v>
       </c>
       <c r="P11">
-        <v>0.9938887226563974</v>
+        <v>0.9954232026244574</v>
       </c>
       <c r="Q11">
-        <v>0.9938887226563975</v>
+        <v>0.9954232026244574</v>
       </c>
       <c r="R11">
-        <v>1.002895192350399</v>
+        <v>1.000101070438735</v>
       </c>
       <c r="S11">
-        <v>1.002895192350399</v>
+        <v>1.000101070438735</v>
       </c>
       <c r="T11">
-        <v>0.9970746207738205</v>
+        <v>0.9983577447309768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.993244994999999</v>
+        <v>0.9814795055814179</v>
       </c>
       <c r="D12">
-        <v>0.9116258029473681</v>
+        <v>0.7057314585161016</v>
       </c>
       <c r="E12">
-        <v>1.164478286915789</v>
+        <v>1.544159252961416</v>
       </c>
       <c r="F12">
-        <v>1.036995467957895</v>
+        <v>1.123344991014803</v>
       </c>
       <c r="G12">
-        <v>1.054999769326315</v>
+        <v>1.181725805954586</v>
       </c>
       <c r="H12">
-        <v>0.8700978064421067</v>
+        <v>0.5637216591357709</v>
       </c>
       <c r="I12">
-        <v>0.8700978064421067</v>
+        <v>0.5637216591357709</v>
       </c>
       <c r="J12">
-        <v>0.993244994999999</v>
+        <v>0.9814795055814179</v>
       </c>
       <c r="K12">
-        <v>0.993244994999999</v>
+        <v>0.9814795055814179</v>
       </c>
       <c r="L12">
-        <v>1.054999769326315</v>
+        <v>1.181725805954586</v>
       </c>
       <c r="M12">
-        <v>0.9625487878842107</v>
+        <v>0.8727237325451784</v>
       </c>
       <c r="N12">
-        <v>0.9625487878842107</v>
+        <v>0.8727237325451784</v>
       </c>
       <c r="O12">
-        <v>0.9455744595719299</v>
+        <v>0.8170596412021528</v>
       </c>
       <c r="P12">
-        <v>0.9727808569228068</v>
+        <v>0.9089756568905916</v>
       </c>
       <c r="Q12">
-        <v>0.9727808569228067</v>
+        <v>0.9089756568905916</v>
       </c>
       <c r="R12">
-        <v>0.9778968914421048</v>
+        <v>0.9271016190632981</v>
       </c>
       <c r="S12">
-        <v>0.9778968914421048</v>
+        <v>0.9271016190632981</v>
       </c>
       <c r="T12">
-        <v>1.005240354764912</v>
+        <v>1.016693778860682</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9802147653557584</v>
+        <v>1.029914601432402</v>
       </c>
       <c r="D13">
-        <v>1.058601110701631</v>
+        <v>0.9730702420913527</v>
       </c>
       <c r="E13">
-        <v>0.921274419829571</v>
+        <v>1.015245637183893</v>
       </c>
       <c r="F13">
-        <v>0.9736477442689017</v>
+        <v>1.012465677398484</v>
       </c>
       <c r="G13">
-        <v>0.9709452632943285</v>
+        <v>1.005285051518018</v>
       </c>
       <c r="H13">
-        <v>1.103561064059937</v>
+        <v>0.9464665150187727</v>
       </c>
       <c r="I13">
-        <v>1.103561064059937</v>
+        <v>0.9464665150187727</v>
       </c>
       <c r="J13">
-        <v>0.9802147653557584</v>
+        <v>1.029914601432402</v>
       </c>
       <c r="K13">
-        <v>0.9802147653557584</v>
+        <v>1.029914601432402</v>
       </c>
       <c r="L13">
-        <v>0.9709452632943285</v>
+        <v>1.005285051518018</v>
       </c>
       <c r="M13">
-        <v>1.037253163677133</v>
+        <v>0.9758757832683953</v>
       </c>
       <c r="N13">
-        <v>1.037253163677133</v>
+        <v>0.9758757832683953</v>
       </c>
       <c r="O13">
-        <v>1.044369146018632</v>
+        <v>0.9749406028760478</v>
       </c>
       <c r="P13">
-        <v>1.018240364236675</v>
+        <v>0.9938887226563974</v>
       </c>
       <c r="Q13">
-        <v>1.018240364236675</v>
+        <v>0.9938887226563975</v>
       </c>
       <c r="R13">
-        <v>1.008733964516445</v>
+        <v>1.002895192350399</v>
       </c>
       <c r="S13">
-        <v>1.008733964516445</v>
+        <v>1.002895192350399</v>
       </c>
       <c r="T13">
-        <v>1.001374061251688</v>
+        <v>0.9970746207738205</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9618347199999993</v>
+        <v>0.993244994999999</v>
       </c>
       <c r="D14">
-        <v>0.4918962299999994</v>
+        <v>0.9116258029473681</v>
       </c>
       <c r="E14">
-        <v>1.947381500000003</v>
+        <v>1.164478286915789</v>
       </c>
       <c r="F14">
-        <v>1.212557700000001</v>
+        <v>1.036995467957895</v>
       </c>
       <c r="G14">
-        <v>1.315735799999999</v>
+        <v>1.054999769326315</v>
       </c>
       <c r="H14">
-        <v>0.2502035199999997</v>
+        <v>0.8700978064421067</v>
       </c>
       <c r="I14">
-        <v>0.2502035199999997</v>
+        <v>0.8700978064421067</v>
       </c>
       <c r="J14">
-        <v>0.9618347199999993</v>
+        <v>0.993244994999999</v>
       </c>
       <c r="K14">
-        <v>0.9618347199999993</v>
+        <v>0.993244994999999</v>
       </c>
       <c r="L14">
-        <v>1.315735799999999</v>
+        <v>1.054999769326315</v>
       </c>
       <c r="M14">
-        <v>0.7829696599999996</v>
+        <v>0.9625487878842107</v>
       </c>
       <c r="N14">
-        <v>0.7829696599999996</v>
+        <v>0.9625487878842107</v>
       </c>
       <c r="O14">
-        <v>0.6859451833333328</v>
+        <v>0.9455744595719299</v>
       </c>
       <c r="P14">
-        <v>0.8425913466666661</v>
+        <v>0.9727808569228068</v>
       </c>
       <c r="Q14">
-        <v>0.8425913466666661</v>
+        <v>0.9727808569228067</v>
       </c>
       <c r="R14">
-        <v>0.8724021899999994</v>
+        <v>0.9778968914421048</v>
       </c>
       <c r="S14">
-        <v>0.8724021899999994</v>
+        <v>0.9778968914421048</v>
       </c>
       <c r="T14">
-        <v>1.029934911666667</v>
+        <v>1.005240354764912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.99179523</v>
+        <v>0.9802147653557584</v>
       </c>
       <c r="D15">
-        <v>0.8102012999999999</v>
+        <v>1.058601110701631</v>
       </c>
       <c r="E15">
-        <v>1.315746</v>
+        <v>0.921274419829571</v>
       </c>
       <c r="F15">
-        <v>1.0863897</v>
+        <v>0.9736477442689017</v>
       </c>
       <c r="G15">
-        <v>1.1253174</v>
+        <v>0.9709452632943285</v>
       </c>
       <c r="H15">
-        <v>0.6733951500000001</v>
+        <v>1.103561064059937</v>
       </c>
       <c r="I15">
-        <v>0.6733951500000001</v>
+        <v>1.103561064059937</v>
       </c>
       <c r="J15">
-        <v>0.99179523</v>
+        <v>0.9802147653557584</v>
       </c>
       <c r="K15">
-        <v>0.99179523</v>
+        <v>0.9802147653557584</v>
       </c>
       <c r="L15">
-        <v>1.1253174</v>
+        <v>0.9709452632943285</v>
       </c>
       <c r="M15">
-        <v>0.8993562749999999</v>
+        <v>1.037253163677133</v>
       </c>
       <c r="N15">
-        <v>0.8993562749999999</v>
+        <v>1.037253163677133</v>
       </c>
       <c r="O15">
-        <v>0.8696379499999999</v>
+        <v>1.044369146018632</v>
       </c>
       <c r="P15">
-        <v>0.93016926</v>
+        <v>1.018240364236675</v>
       </c>
       <c r="Q15">
-        <v>0.93016926</v>
+        <v>1.018240364236675</v>
       </c>
       <c r="R15">
-        <v>0.9455757525</v>
+        <v>1.008733964516445</v>
       </c>
       <c r="S15">
-        <v>0.9455757525</v>
+        <v>1.008733964516445</v>
       </c>
       <c r="T15">
-        <v>1.00047413</v>
+        <v>1.001374061251688</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.3679559</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="D16">
-        <v>0.7938064500000001</v>
+        <v>0.4918962299999994</v>
       </c>
       <c r="E16">
-        <v>0.9618347200000001</v>
+        <v>1.947381500000003</v>
       </c>
       <c r="F16">
-        <v>1.1014624</v>
+        <v>1.212557700000001</v>
       </c>
       <c r="G16">
-        <v>0.99179431</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="H16">
-        <v>0.5229061699999999</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="I16">
-        <v>0.5229061699999999</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="J16">
-        <v>1.3679559</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="K16">
-        <v>1.3679559</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="L16">
-        <v>0.99179431</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="M16">
-        <v>0.75735024</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="N16">
-        <v>0.75735024</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="O16">
-        <v>0.76950231</v>
+        <v>0.6859451833333328</v>
       </c>
       <c r="P16">
-        <v>0.9608854599999997</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="Q16">
-        <v>0.9608854599999997</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="R16">
-        <v>1.06265307</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="S16">
-        <v>1.06265307</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="T16">
-        <v>0.9566266583333332</v>
+        <v>1.029934911666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8915424299999999</v>
+        <v>0.99179523</v>
       </c>
       <c r="D17">
-        <v>1.1532739</v>
+        <v>0.8102012999999999</v>
       </c>
       <c r="E17">
-        <v>0.8283339199999999</v>
+        <v>1.315746</v>
       </c>
       <c r="F17">
-        <v>0.93542049</v>
+        <v>1.0863897</v>
       </c>
       <c r="G17">
-        <v>0.9534773099999999</v>
+        <v>1.1253174</v>
       </c>
       <c r="H17">
-        <v>1.2480078</v>
+        <v>0.6733951500000001</v>
       </c>
       <c r="I17">
-        <v>1.2480078</v>
+        <v>0.6733951500000001</v>
       </c>
       <c r="J17">
-        <v>0.8915424299999999</v>
+        <v>0.99179523</v>
       </c>
       <c r="K17">
-        <v>0.8915424299999999</v>
+        <v>0.99179523</v>
       </c>
       <c r="L17">
-        <v>0.9534773099999999</v>
+        <v>1.1253174</v>
       </c>
       <c r="M17">
-        <v>1.100742555</v>
+        <v>0.8993562749999999</v>
       </c>
       <c r="N17">
-        <v>1.100742555</v>
+        <v>0.8993562749999999</v>
       </c>
       <c r="O17">
-        <v>1.118253003333333</v>
+        <v>0.8696379499999999</v>
       </c>
       <c r="P17">
-        <v>1.03100918</v>
+        <v>0.93016926</v>
       </c>
       <c r="Q17">
-        <v>1.03100918</v>
+        <v>0.93016926</v>
       </c>
       <c r="R17">
-        <v>0.9961424924999999</v>
+        <v>0.9455757525</v>
       </c>
       <c r="S17">
-        <v>0.9961424924999999</v>
+        <v>0.9455757525</v>
       </c>
       <c r="T17">
-        <v>1.001675975</v>
+        <v>1.00047413</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.177298675205479</v>
+        <v>1.3679559</v>
       </c>
       <c r="D18">
-        <v>0.8021192230136984</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="E18">
-        <v>1.141209379178082</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="F18">
-        <v>1.09382152739726</v>
+        <v>1.1014624</v>
       </c>
       <c r="G18">
-        <v>1.059468789863014</v>
+        <v>0.99179431</v>
       </c>
       <c r="H18">
-        <v>0.5991860223287672</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I18">
-        <v>0.5991860223287672</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="J18">
-        <v>1.177298675205479</v>
+        <v>1.3679559</v>
       </c>
       <c r="K18">
-        <v>1.177298675205479</v>
+        <v>1.3679559</v>
       </c>
       <c r="L18">
-        <v>1.059468789863014</v>
+        <v>0.99179431</v>
       </c>
       <c r="M18">
-        <v>0.8293274060958904</v>
+        <v>0.75735024</v>
       </c>
       <c r="N18">
-        <v>0.8293274060958904</v>
+        <v>0.75735024</v>
       </c>
       <c r="O18">
-        <v>0.8202580117351598</v>
+        <v>0.76950231</v>
       </c>
       <c r="P18">
-        <v>0.9453178291324201</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q18">
-        <v>0.9453178291324199</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R18">
-        <v>1.003313040650685</v>
+        <v>1.06265307</v>
       </c>
       <c r="S18">
-        <v>1.003313040650685</v>
+        <v>1.06265307</v>
       </c>
       <c r="T18">
-        <v>0.9788506028310501</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.060644875789474</v>
+        <v>0.8915424299999999</v>
       </c>
       <c r="D19">
-        <v>0.9122313226315787</v>
+        <v>1.1532739</v>
       </c>
       <c r="E19">
-        <v>1.079401156315789</v>
+        <v>0.8283339199999999</v>
       </c>
       <c r="F19">
-        <v>1.04188314</v>
+        <v>0.93542049</v>
       </c>
       <c r="G19">
-        <v>1.034162258947369</v>
+        <v>0.9534773099999999</v>
       </c>
       <c r="H19">
-        <v>0.8205205531578945</v>
+        <v>1.2480078</v>
       </c>
       <c r="I19">
-        <v>0.8205205531578945</v>
+        <v>1.2480078</v>
       </c>
       <c r="J19">
-        <v>1.060644875789474</v>
+        <v>0.8915424299999999</v>
       </c>
       <c r="K19">
-        <v>1.060644875789474</v>
+        <v>0.8915424299999999</v>
       </c>
       <c r="L19">
-        <v>1.034162258947369</v>
+        <v>0.9534773099999999</v>
       </c>
       <c r="M19">
-        <v>0.9273414060526316</v>
+        <v>1.100742555</v>
       </c>
       <c r="N19">
-        <v>0.9273414060526316</v>
+        <v>1.100742555</v>
       </c>
       <c r="O19">
-        <v>0.9223047115789473</v>
+        <v>1.118253003333333</v>
       </c>
       <c r="P19">
-        <v>0.9717758959649122</v>
+        <v>1.03100918</v>
       </c>
       <c r="Q19">
-        <v>0.9717758959649122</v>
+        <v>1.03100918</v>
       </c>
       <c r="R19">
-        <v>0.9939931409210525</v>
+        <v>0.9961424924999999</v>
       </c>
       <c r="S19">
-        <v>0.9939931409210525</v>
+        <v>0.9961424924999999</v>
       </c>
       <c r="T19">
-        <v>0.991473884473684</v>
+        <v>1.001675975</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9584451305263157</v>
+        <v>1.177298675205479</v>
       </c>
       <c r="D20">
-        <v>0.9144070715789473</v>
+        <v>0.8021192230136984</v>
       </c>
       <c r="E20">
-        <v>1.203648202631579</v>
+        <v>1.141209379178082</v>
       </c>
       <c r="F20">
-        <v>1.032922123157895</v>
+        <v>1.09382152739726</v>
       </c>
       <c r="G20">
-        <v>1.063571071578947</v>
+        <v>1.059468789863014</v>
       </c>
       <c r="H20">
-        <v>0.9028521389473685</v>
+        <v>0.5991860223287672</v>
       </c>
       <c r="I20">
-        <v>0.9028521389473685</v>
+        <v>0.5991860223287672</v>
       </c>
       <c r="J20">
-        <v>0.9584451305263157</v>
+        <v>1.177298675205479</v>
       </c>
       <c r="K20">
-        <v>0.9584451305263157</v>
+        <v>1.177298675205479</v>
       </c>
       <c r="L20">
-        <v>1.063571071578947</v>
+        <v>1.059468789863014</v>
       </c>
       <c r="M20">
-        <v>0.9832116052631579</v>
+        <v>0.8293274060958904</v>
       </c>
       <c r="N20">
-        <v>0.9832116052631579</v>
+        <v>0.8293274060958904</v>
       </c>
       <c r="O20">
-        <v>0.9602767607017544</v>
+        <v>0.8202580117351598</v>
       </c>
       <c r="P20">
-        <v>0.9749561136842105</v>
+        <v>0.9453178291324201</v>
       </c>
       <c r="Q20">
-        <v>0.9749561136842105</v>
+        <v>0.9453178291324199</v>
       </c>
       <c r="R20">
-        <v>0.9708283678947368</v>
+        <v>1.003313040650685</v>
       </c>
       <c r="S20">
-        <v>0.9708283678947368</v>
+        <v>1.003313040650685</v>
       </c>
       <c r="T20">
-        <v>1.012640956403509</v>
+        <v>0.9788506028310501</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.035987231812905</v>
+        <v>1.060644875789474</v>
       </c>
       <c r="D21">
-        <v>1.065926112515618</v>
+        <v>0.9122313226315787</v>
       </c>
       <c r="E21">
-        <v>0.8413008552341321</v>
+        <v>1.079401156315789</v>
       </c>
       <c r="F21">
-        <v>0.9742366007178362</v>
+        <v>1.04188314</v>
       </c>
       <c r="G21">
-        <v>0.948824807966586</v>
+        <v>1.034162258947369</v>
       </c>
       <c r="H21">
-        <v>1.076880447286525</v>
+        <v>0.8205205531578945</v>
       </c>
       <c r="I21">
-        <v>1.076880447286525</v>
+        <v>0.8205205531578945</v>
       </c>
       <c r="J21">
-        <v>1.035987231812905</v>
+        <v>1.060644875789474</v>
       </c>
       <c r="K21">
-        <v>1.035987231812905</v>
+        <v>1.060644875789474</v>
       </c>
       <c r="L21">
-        <v>0.948824807966586</v>
+        <v>1.034162258947369</v>
       </c>
       <c r="M21">
-        <v>1.012852627626555</v>
+        <v>0.9273414060526316</v>
       </c>
       <c r="N21">
-        <v>1.012852627626555</v>
+        <v>0.9273414060526316</v>
       </c>
       <c r="O21">
-        <v>1.030543789256243</v>
+        <v>0.9223047115789473</v>
       </c>
       <c r="P21">
-        <v>1.020564162355339</v>
+        <v>0.9717758959649122</v>
       </c>
       <c r="Q21">
-        <v>1.020564162355339</v>
+        <v>0.9717758959649122</v>
       </c>
       <c r="R21">
-        <v>1.02441992971973</v>
+        <v>0.9939931409210525</v>
       </c>
       <c r="S21">
-        <v>1.02441992971973</v>
+        <v>0.9939931409210525</v>
       </c>
       <c r="T21">
-        <v>0.9905260092556002</v>
+        <v>0.991473884473684</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9652915770361605</v>
+        <v>0.9584451305263157</v>
       </c>
       <c r="D22">
-        <v>1.017857111946835</v>
+        <v>0.9144070715789473</v>
       </c>
       <c r="E22">
-        <v>1.011927935158048</v>
+        <v>1.203648202631579</v>
       </c>
       <c r="F22">
-        <v>0.9896429273507429</v>
+        <v>1.032922123157895</v>
       </c>
       <c r="G22">
-        <v>0.9996640585699197</v>
+        <v>1.063571071578947</v>
       </c>
       <c r="H22">
-        <v>1.055007825826831</v>
+        <v>0.9028521389473685</v>
       </c>
       <c r="I22">
-        <v>1.055007825826831</v>
+        <v>0.9028521389473685</v>
       </c>
       <c r="J22">
-        <v>0.9652915770361605</v>
+        <v>0.9584451305263157</v>
       </c>
       <c r="K22">
-        <v>0.9652915770361605</v>
+        <v>0.9584451305263157</v>
       </c>
       <c r="L22">
-        <v>0.9996640585699197</v>
+        <v>1.063571071578947</v>
       </c>
       <c r="M22">
-        <v>1.027335942198375</v>
+        <v>0.9832116052631579</v>
       </c>
       <c r="N22">
-        <v>1.027335942198375</v>
+        <v>0.9832116052631579</v>
       </c>
       <c r="O22">
-        <v>1.024176332114529</v>
+        <v>0.9602767607017544</v>
       </c>
       <c r="P22">
-        <v>1.006654487144304</v>
+        <v>0.9749561136842105</v>
       </c>
       <c r="Q22">
-        <v>1.006654487144304</v>
+        <v>0.9749561136842105</v>
       </c>
       <c r="R22">
-        <v>0.996313759617268</v>
+        <v>0.9708283678947368</v>
       </c>
       <c r="S22">
-        <v>0.996313759617268</v>
+        <v>0.9708283678947368</v>
       </c>
       <c r="T22">
-        <v>1.006565239314756</v>
+        <v>1.012640956403509</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.034299235804317</v>
+        <v>1.035987231812905</v>
       </c>
       <c r="D23">
-        <v>1.065715635334983</v>
+        <v>1.065926112515618</v>
       </c>
       <c r="E23">
-        <v>0.8459595168994624</v>
+        <v>0.8413008552341321</v>
       </c>
       <c r="F23">
-        <v>0.9736475715613275</v>
+        <v>0.9742366007178362</v>
       </c>
       <c r="G23">
-        <v>0.9486880292113041</v>
+        <v>0.948824807966586</v>
       </c>
       <c r="H23">
-        <v>1.082247054752975</v>
+        <v>1.076880447286525</v>
       </c>
       <c r="I23">
-        <v>1.082247054752975</v>
+        <v>1.076880447286525</v>
       </c>
       <c r="J23">
-        <v>1.034299235804317</v>
+        <v>1.035987231812905</v>
       </c>
       <c r="K23">
-        <v>1.034299235804317</v>
+        <v>1.035987231812905</v>
       </c>
       <c r="L23">
-        <v>0.9486880292113041</v>
+        <v>0.948824807966586</v>
       </c>
       <c r="M23">
-        <v>1.01546754198214</v>
+        <v>1.012852627626555</v>
       </c>
       <c r="N23">
-        <v>1.01546754198214</v>
+        <v>1.012852627626555</v>
       </c>
       <c r="O23">
-        <v>1.032216906433087</v>
+        <v>1.030543789256243</v>
       </c>
       <c r="P23">
-        <v>1.021744773256199</v>
+        <v>1.020564162355339</v>
       </c>
       <c r="Q23">
-        <v>1.021744773256199</v>
+        <v>1.020564162355339</v>
       </c>
       <c r="R23">
-        <v>1.024883388893228</v>
+        <v>1.02441992971973</v>
       </c>
       <c r="S23">
-        <v>1.024883388893228</v>
+        <v>1.02441992971973</v>
       </c>
       <c r="T23">
-        <v>0.9917595072607283</v>
+        <v>0.9905260092556002</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9645573647888191</v>
+        <v>0.9652915770361605</v>
       </c>
       <c r="D24">
-        <v>1.018276349339149</v>
+        <v>1.017857111946835</v>
       </c>
       <c r="E24">
-        <v>1.00942777778985</v>
+        <v>1.011927935158048</v>
       </c>
       <c r="F24">
-        <v>0.9901223040686719</v>
+        <v>0.9896429273507429</v>
       </c>
       <c r="G24">
-        <v>1.000642851821473</v>
+        <v>0.9996640585699197</v>
       </c>
       <c r="H24">
-        <v>1.050096038616672</v>
+        <v>1.055007825826831</v>
       </c>
       <c r="I24">
-        <v>1.050096038616672</v>
+        <v>1.055007825826831</v>
       </c>
       <c r="J24">
-        <v>0.9645573647888191</v>
+        <v>0.9652915770361605</v>
       </c>
       <c r="K24">
-        <v>0.9645573647888191</v>
+        <v>0.9652915770361605</v>
       </c>
       <c r="L24">
-        <v>1.000642851821473</v>
+        <v>0.9996640585699197</v>
       </c>
       <c r="M24">
-        <v>1.025369445219072</v>
+        <v>1.027335942198375</v>
       </c>
       <c r="N24">
-        <v>1.025369445219072</v>
+        <v>1.027335942198375</v>
       </c>
       <c r="O24">
-        <v>1.023005079925764</v>
+        <v>1.024176332114529</v>
       </c>
       <c r="P24">
-        <v>1.005098751742321</v>
+        <v>1.006654487144304</v>
       </c>
       <c r="Q24">
-        <v>1.005098751742321</v>
+        <v>1.006654487144304</v>
       </c>
       <c r="R24">
-        <v>0.9949634050039458</v>
+        <v>0.996313759617268</v>
       </c>
       <c r="S24">
-        <v>0.9949634050039458</v>
+        <v>0.996313759617268</v>
       </c>
       <c r="T24">
-        <v>1.005520447737439</v>
+        <v>1.006565239314756</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.032613787794711</v>
+        <v>1.034299235804317</v>
       </c>
       <c r="D25">
-        <v>1.065504002113333</v>
+        <v>1.065715635334983</v>
       </c>
       <c r="E25">
-        <v>0.8506176846503331</v>
+        <v>0.8459595168994624</v>
       </c>
       <c r="F25">
-        <v>0.9730590755090112</v>
+        <v>0.9736475715613275</v>
       </c>
       <c r="G25">
-        <v>0.9485509585659506</v>
+        <v>0.9486880292113041</v>
       </c>
       <c r="H25">
-        <v>1.08761119132621</v>
+        <v>1.082247054752975</v>
       </c>
       <c r="I25">
-        <v>1.08761119132621</v>
+        <v>1.082247054752975</v>
       </c>
       <c r="J25">
-        <v>1.032613787794711</v>
+        <v>1.034299235804317</v>
       </c>
       <c r="K25">
-        <v>1.032613787794711</v>
+        <v>1.034299235804317</v>
       </c>
       <c r="L25">
-        <v>0.9485509585659506</v>
+        <v>0.9486880292113041</v>
       </c>
       <c r="M25">
-        <v>1.01808107494608</v>
+        <v>1.01546754198214</v>
       </c>
       <c r="N25">
-        <v>1.01808107494608</v>
+        <v>1.01546754198214</v>
       </c>
       <c r="O25">
-        <v>1.033888717335165</v>
+        <v>1.032216906433087</v>
       </c>
       <c r="P25">
-        <v>1.022925312562291</v>
+        <v>1.021744773256199</v>
       </c>
       <c r="Q25">
-        <v>1.02292531256229</v>
+        <v>1.021744773256199</v>
       </c>
       <c r="R25">
-        <v>1.025347431370395</v>
+        <v>1.024883388893228</v>
       </c>
       <c r="S25">
-        <v>1.025347431370395</v>
+        <v>1.024883388893228</v>
       </c>
       <c r="T25">
-        <v>0.9929927833265916</v>
+        <v>0.9917595072607283</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9638221813622511</v>
+        <v>0.9645573647888191</v>
       </c>
       <c r="D26">
-        <v>1.018695387507476</v>
+        <v>1.018276349339149</v>
       </c>
       <c r="E26">
-        <v>1.006928559361844</v>
+        <v>1.00942777778985</v>
       </c>
       <c r="F26">
-        <v>0.9906018303679908</v>
+        <v>0.9901223040686719</v>
       </c>
       <c r="G26">
-        <v>1.001622270446075</v>
+        <v>1.000642851821473</v>
       </c>
       <c r="H26">
-        <v>1.045183547486109</v>
+        <v>1.050096038616672</v>
       </c>
       <c r="I26">
-        <v>1.045183547486109</v>
+        <v>1.050096038616672</v>
       </c>
       <c r="J26">
-        <v>0.9638221813622511</v>
+        <v>0.9645573647888191</v>
       </c>
       <c r="K26">
-        <v>0.9638221813622511</v>
+        <v>0.9645573647888191</v>
       </c>
       <c r="L26">
-        <v>1.001622270446075</v>
+        <v>1.000642851821473</v>
       </c>
       <c r="M26">
-        <v>1.023402908966092</v>
+        <v>1.025369445219072</v>
       </c>
       <c r="N26">
-        <v>1.023402908966092</v>
+        <v>1.025369445219072</v>
       </c>
       <c r="O26">
-        <v>1.021833735146553</v>
+        <v>1.023005079925764</v>
       </c>
       <c r="P26">
-        <v>1.003542666431478</v>
+        <v>1.005098751742321</v>
       </c>
       <c r="Q26">
-        <v>1.003542666431478</v>
+        <v>1.005098751742321</v>
       </c>
       <c r="R26">
-        <v>0.9936125451641714</v>
+        <v>0.9949634050039458</v>
       </c>
       <c r="S26">
-        <v>0.9936125451641714</v>
+        <v>0.9949634050039458</v>
       </c>
       <c r="T26">
-        <v>1.004475629421957</v>
+        <v>1.005520447737439</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.018200358817443</v>
+        <v>1.032613787794711</v>
       </c>
       <c r="D27">
-        <v>0.9695990180661054</v>
+        <v>1.065504002113333</v>
       </c>
       <c r="E27">
-        <v>1.029719632682923</v>
+        <v>0.8506176846503331</v>
       </c>
       <c r="F27">
-        <v>1.014727742239421</v>
+        <v>0.9730590755090112</v>
       </c>
       <c r="G27">
-        <v>1.013298665865324</v>
+        <v>0.9485509585659506</v>
       </c>
       <c r="H27">
-        <v>0.9354260382605486</v>
+        <v>1.08761119132621</v>
       </c>
       <c r="I27">
-        <v>0.9354260382605486</v>
+        <v>1.08761119132621</v>
       </c>
       <c r="J27">
-        <v>1.018200358817443</v>
+        <v>1.032613787794711</v>
       </c>
       <c r="K27">
-        <v>1.018200358817443</v>
+        <v>1.032613787794711</v>
       </c>
       <c r="L27">
-        <v>1.013298665865324</v>
+        <v>0.9485509585659506</v>
       </c>
       <c r="M27">
-        <v>0.9743623520629363</v>
+        <v>1.01808107494608</v>
       </c>
       <c r="N27">
-        <v>0.9743623520629363</v>
+        <v>1.01808107494608</v>
       </c>
       <c r="O27">
-        <v>0.9727745740639927</v>
+        <v>1.033888717335165</v>
       </c>
       <c r="P27">
-        <v>0.9889750209811052</v>
+        <v>1.022925312562291</v>
       </c>
       <c r="Q27">
-        <v>0.9889750209811052</v>
+        <v>1.02292531256229</v>
       </c>
       <c r="R27">
-        <v>0.9962813554401897</v>
+        <v>1.025347431370395</v>
       </c>
       <c r="S27">
-        <v>0.9962813554401897</v>
+        <v>1.025347431370395</v>
       </c>
       <c r="T27">
-        <v>0.9968285759886277</v>
+        <v>0.9929927833265916</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.032967370299977</v>
+        <v>0.9638221813622511</v>
       </c>
       <c r="D28">
-        <v>1.003742460472811</v>
+        <v>1.018695387507476</v>
       </c>
       <c r="E28">
-        <v>0.9584463366816585</v>
+        <v>1.006928559361844</v>
       </c>
       <c r="F28">
-        <v>0.9993618598241003</v>
+        <v>0.9906018303679908</v>
       </c>
       <c r="G28">
-        <v>0.9855324263618688</v>
+        <v>1.001622270446075</v>
       </c>
       <c r="H28">
-        <v>0.9937901246824757</v>
+        <v>1.045183547486109</v>
       </c>
       <c r="I28">
-        <v>0.9937901246824757</v>
+        <v>1.045183547486109</v>
       </c>
       <c r="J28">
-        <v>1.032967370299977</v>
+        <v>0.9638221813622511</v>
       </c>
       <c r="K28">
-        <v>1.032967370299977</v>
+        <v>0.9638221813622511</v>
       </c>
       <c r="L28">
-        <v>0.9855324263618688</v>
+        <v>1.001622270446075</v>
       </c>
       <c r="M28">
-        <v>0.9896612755221723</v>
+        <v>1.023402908966092</v>
       </c>
       <c r="N28">
-        <v>0.9896612755221723</v>
+        <v>1.023402908966092</v>
       </c>
       <c r="O28">
-        <v>0.9943550038390517</v>
+        <v>1.021833735146553</v>
       </c>
       <c r="P28">
-        <v>1.004096640448107</v>
+        <v>1.003542666431478</v>
       </c>
       <c r="Q28">
-        <v>1.004096640448107</v>
+        <v>1.003542666431478</v>
       </c>
       <c r="R28">
-        <v>1.011314322911075</v>
+        <v>0.9936125451641714</v>
       </c>
       <c r="S28">
-        <v>1.011314322911075</v>
+        <v>0.9936125451641714</v>
       </c>
       <c r="T28">
-        <v>0.9956400963871485</v>
+        <v>1.004475629421957</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.018200358817443</v>
+      </c>
+      <c r="D29">
+        <v>0.9695990180661054</v>
+      </c>
+      <c r="E29">
+        <v>1.029719632682923</v>
+      </c>
+      <c r="F29">
+        <v>1.014727742239421</v>
+      </c>
+      <c r="G29">
+        <v>1.013298665865324</v>
+      </c>
+      <c r="H29">
+        <v>0.9354260382605486</v>
+      </c>
+      <c r="I29">
+        <v>0.9354260382605486</v>
+      </c>
+      <c r="J29">
+        <v>1.018200358817443</v>
+      </c>
+      <c r="K29">
+        <v>1.018200358817443</v>
+      </c>
+      <c r="L29">
+        <v>1.013298665865324</v>
+      </c>
+      <c r="M29">
+        <v>0.9743623520629363</v>
+      </c>
+      <c r="N29">
+        <v>0.9743623520629363</v>
+      </c>
+      <c r="O29">
+        <v>0.9727745740639927</v>
+      </c>
+      <c r="P29">
+        <v>0.9889750209811052</v>
+      </c>
+      <c r="Q29">
+        <v>0.9889750209811052</v>
+      </c>
+      <c r="R29">
+        <v>0.9962813554401897</v>
+      </c>
+      <c r="S29">
+        <v>0.9962813554401897</v>
+      </c>
+      <c r="T29">
+        <v>0.9968285759886277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.032967370299977</v>
+      </c>
+      <c r="D30">
+        <v>1.003742460472811</v>
+      </c>
+      <c r="E30">
+        <v>0.9584463366816585</v>
+      </c>
+      <c r="F30">
+        <v>0.9993618598241003</v>
+      </c>
+      <c r="G30">
+        <v>0.9855324263618688</v>
+      </c>
+      <c r="H30">
+        <v>0.9937901246824757</v>
+      </c>
+      <c r="I30">
+        <v>0.9937901246824757</v>
+      </c>
+      <c r="J30">
+        <v>1.032967370299977</v>
+      </c>
+      <c r="K30">
+        <v>1.032967370299977</v>
+      </c>
+      <c r="L30">
+        <v>0.9855324263618688</v>
+      </c>
+      <c r="M30">
+        <v>0.9896612755221723</v>
+      </c>
+      <c r="N30">
+        <v>0.9896612755221723</v>
+      </c>
+      <c r="O30">
+        <v>0.9943550038390517</v>
+      </c>
+      <c r="P30">
+        <v>1.004096640448107</v>
+      </c>
+      <c r="Q30">
+        <v>1.004096640448107</v>
+      </c>
+      <c r="R30">
+        <v>1.011314322911075</v>
+      </c>
+      <c r="S30">
+        <v>1.011314322911075</v>
+      </c>
+      <c r="T30">
+        <v>0.9956400963871485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9941579916311073</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.099234551311955</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.820806711715182</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9601642381183493</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9461750388630804</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.134823384510616</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.134823384510616</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9941579916311073</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9941579916311073</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9461750388630804</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.040499211686848</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.040499211686848</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.06007765822855</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.025052138334934</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.025052138334934</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.017328601658978</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.017328601658978</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9925603193583816</v>
       </c>
     </row>
